--- a/Fire work/Company/Basant/Billing Basant.xlsx
+++ b/Fire work/Company/Basant/Billing Basant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Malad" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Borivali!$A$1:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Borivali!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="243">
   <si>
     <t>Saimita</t>
   </si>
@@ -194,22 +194,49 @@
     <t>Vashudev (Vorivali west)</t>
   </si>
   <si>
+    <t>20 % of thus bill is billed in 29</t>
+  </si>
+  <si>
     <t>30/12/2024</t>
   </si>
   <si>
     <t>NBF/1224/022</t>
   </si>
   <si>
+    <t xml:space="preserve">Mehta 20% holding release of all site mehta </t>
+  </si>
+  <si>
     <t>NBF/1224/023</t>
   </si>
   <si>
     <t>Prity CHSL (Ghatcopar)</t>
   </si>
   <si>
+    <t>20% holding</t>
+  </si>
+  <si>
     <t xml:space="preserve">NBF/1224/24   </t>
   </si>
   <si>
     <t xml:space="preserve">NBF/1224/25   </t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0125/26   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashmi Celestia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0125/27   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0125/28   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0125/29   </t>
   </si>
   <si>
     <t>17/06/2024</t>
@@ -642,6 +669,129 @@
   <si>
     <t xml:space="preserve">7th floor passage sprinkler point </t>
   </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Basudev</t>
+  </si>
+  <si>
+    <t>Booster pump in stallation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 mm butterfly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 mm nrv </t>
+  </si>
+  <si>
+    <t>10.5 mtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashmi Celestia   </t>
+  </si>
+  <si>
+    <t>3rd floor sprinkler point</t>
+  </si>
+  <si>
+    <t>3rd floor dencher point</t>
+  </si>
+  <si>
+    <t>8th floor passage sprinkler point</t>
+  </si>
+  <si>
+    <t>8th floor CPVC sprinkler point</t>
+  </si>
+  <si>
+    <t>Prity chsl</t>
+  </si>
+  <si>
+    <t>1st floor to 12th floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprinkler line to drain connection </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Welder</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Fitter</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Helfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking sprinkler point </t>
+  </si>
+  <si>
+    <t>40 nos</t>
+  </si>
+  <si>
+    <t>8th floor sprinkler point</t>
+  </si>
+  <si>
+    <t>9th floor sprinkler point</t>
+  </si>
+  <si>
+    <t>10th floor sprinkler point</t>
+  </si>
+  <si>
+    <t>11th floor sprinkler point</t>
+  </si>
+  <si>
+    <t>7th floor sprinkler point extention</t>
+  </si>
+  <si>
+    <t>6th floor sprinkler point extention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6th floor sprinkler fitting </t>
+  </si>
+  <si>
+    <t>1st floor to 5th floor sprinkler point extention</t>
+  </si>
+  <si>
+    <t>15 nos</t>
+  </si>
+  <si>
+    <t>150 mm pipe</t>
+  </si>
+  <si>
+    <t>36.4 mtr</t>
+  </si>
+  <si>
+    <t>14 mtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 mm pipe </t>
+  </si>
+  <si>
+    <t>7.5 mtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 mm pipe wrapping coating </t>
+  </si>
+  <si>
+    <t>Signate</t>
+  </si>
+  <si>
+    <t>2nd floor to 10th floor 50 mm  dencher line (40 mtr/floor) rework</t>
+  </si>
+  <si>
+    <t>360 mtr</t>
+  </si>
+  <si>
+    <t>2nd floor to 10th floor  25mm QD line (40 mtr/floor) rework</t>
+  </si>
 </sst>
 </file>
 
@@ -653,7 +803,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +871,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="4" tint="-0.5"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -1173,7 +1330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1207,6 +1364,65 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1412,137 +1628,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1595,70 +1811,113 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,8 +2009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8906510" y="3389630"/>
-          <a:ext cx="1416050" cy="264795"/>
+          <a:off x="8980170" y="3424555"/>
+          <a:ext cx="1360170" cy="474345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,280 +2290,280 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.3636363636364" customWidth="1"/>
-    <col min="6" max="7" width="14.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="11.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="13.3619047619048" customWidth="1"/>
+    <col min="6" max="7" width="14.4571428571429" customWidth="1"/>
+    <col min="8" max="8" width="11.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="50">
         <v>45321</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="38">
         <v>189726</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="38">
         <v>151781</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="42">
         <v>151781</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="38">
         <v>37945</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="22">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="50">
         <v>45351</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="38">
         <v>151270</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="42">
         <v>121016</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="42">
         <v>121016</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="38">
         <v>30254</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="22">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="50">
         <v>45381</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="38">
         <v>181100</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="42">
         <v>144880</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="38">
         <v>36220</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="22">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="22">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="22">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="22">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="22">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
@@ -2326,928 +2585,986 @@
   <sheetPr/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="15.3363636363636" customWidth="1"/>
-    <col min="6" max="6" width="14.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="9.66363636363636"/>
-    <col min="9" max="9" width="23.6636363636364" customWidth="1"/>
-    <col min="12" max="12" width="21.5545454545455" customWidth="1"/>
-    <col min="14" max="14" width="16.1090909090909" customWidth="1"/>
+    <col min="2" max="2" width="18.3619047619048" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.7619047619048" customWidth="1"/>
+    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667"/>
+    <col min="9" max="9" width="23.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="21.552380952381" customWidth="1"/>
+    <col min="14" max="14" width="16.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" ht="15.5" spans="1:15">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="22">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="43">
         <v>45281</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="44">
         <v>30000</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="44">
         <v>30000</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28">
+      <c r="G3" s="45"/>
+      <c r="H3" s="44">
         <v>0</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" ht="15.5" spans="1:15">
-      <c r="A4" s="22">
+      <c r="I3" s="44"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="43">
         <v>45291</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="44">
         <v>51000</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="44">
         <v>51000</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28">
+      <c r="G4" s="45"/>
+      <c r="H4" s="44">
         <v>0</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" ht="15.5" spans="1:15">
-      <c r="A5" s="22">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="43">
         <v>45291</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="44">
         <v>30890</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="22"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="22">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="47">
         <v>70776</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="47">
         <v>56621</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31">
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <v>14155</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="47" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="22">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="49">
         <v>45320</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="47">
         <v>129861</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="48">
         <v>103889</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="48">
         <v>103889</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="47">
         <v>25972</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="43">
         <v>45321</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="44">
         <v>189726</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="44">
         <v>151781</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="45">
         <v>151781</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="44">
         <v>37945</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="22">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="43">
         <v>45351</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="44">
         <v>151270</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="44">
         <v>120000</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="45">
         <v>121016</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="44">
         <v>30254</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="58"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="22"/>
-      <c r="B10" s="33">
+      <c r="A10" s="38"/>
+      <c r="B10" s="49">
         <v>45351</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="47">
         <v>100581</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="22"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="22">
+      <c r="A11" s="38">
         <v>8</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="49">
         <v>45381</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="47">
         <v>72789</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="48">
         <v>58231</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="48">
         <v>58231</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="47">
         <v>14557</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="47" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="22"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="22">
+      <c r="A12" s="38">
         <v>9</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="50">
         <v>45381</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="38">
         <v>181100</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="38">
         <v>116769</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="42">
         <v>144880</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="38">
         <v>36220</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="22"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="22">
+      <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="50">
         <v>45415</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="38">
         <v>123950</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="42">
         <v>99160</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="38">
         <v>24970</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" ht="15.5" spans="1:14">
-      <c r="A14" s="22">
+      <c r="K13" s="72"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="38">
         <v>11</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="49">
         <v>45435</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="47">
         <v>146736</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="48">
         <v>115000</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="47">
         <v>29347.2</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="47" t="s">
         <v>34</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" ht="15.5" spans="1:14">
-      <c r="A15" s="22">
+      <c r="K14" s="72"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="38">
         <v>12</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="50">
         <v>45437</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="38">
         <v>142675</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="42">
         <v>12000</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" ht="15.5" spans="1:14">
-      <c r="A16" s="22">
+      <c r="K15" s="72"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="38">
         <v>13</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="50">
         <v>45450</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="53">
         <v>129209</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="53">
         <v>129209</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" ht="15.5" spans="1:14">
-      <c r="A17" s="22">
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="44"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="38">
         <v>14</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="54">
         <v>45471</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="56">
         <v>120097</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
       <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-    </row>
-    <row r="18" ht="15.5" spans="1:14">
-      <c r="A18" s="26">
+      <c r="K17" s="71"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="42">
         <v>15</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="50">
         <v>45534</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="38">
         <v>186300</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="38">
         <v>150000</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="38">
         <v>37360</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="64"/>
-    </row>
-    <row r="19" ht="15.5" spans="1:10">
-      <c r="A19" s="26">
+      <c r="I18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="75"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="42">
         <v>16</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="49">
         <v>45565</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="47">
         <v>127480</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="E19" s="47"/>
+      <c r="F19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="47">
         <v>101984</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="47">
         <v>25496</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="47"/>
       <c r="J19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:9">
-      <c r="A20" s="22">
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
         <v>17</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="50">
         <v>45565</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="60">
         <v>350063</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="60">
         <v>280050</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="60">
         <v>70013</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:10">
-      <c r="A21" s="22">
+    <row r="21" spans="1:10">
+      <c r="A21" s="38">
         <v>18</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="50">
         <v>45565</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="38">
         <v>131168</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="38">
         <v>104934.4</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="38">
         <v>26233.6</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" ht="15.5" spans="1:11">
-      <c r="A22" s="22"/>
-      <c r="B22" s="34">
+    <row r="22" spans="1:11">
+      <c r="A22" s="38"/>
+      <c r="B22" s="50">
         <v>45623</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="60">
         <v>87613</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="22"/>
-      <c r="K22" s="65"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="38"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="38">
         <v>34882</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="22">
-        <v>31500</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="38">
+        <v>30750</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="M24" s="66"/>
+      <c r="G24" s="38">
+        <v>24600</v>
+      </c>
+      <c r="H24" s="38">
+        <v>6150</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="22">
-        <v>77379.6</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="C25" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="38">
+        <v>75770</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" s="23" customFormat="1" spans="1:9">
-      <c r="A26" s="45"/>
-      <c r="B26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="45">
-        <v>206593</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" s="23" customFormat="1" ht="15.5" spans="1:16">
-      <c r="A27" s="45"/>
-      <c r="B27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="46" t="s">
+    </row>
+    <row r="26" s="39" customFormat="1" spans="1:9">
+      <c r="A26" s="61"/>
+      <c r="B26" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="45">
-        <v>63750</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="22" t="s">
+      <c r="D26" s="61">
+        <v>159684</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="61">
+        <v>127747</v>
+      </c>
+      <c r="H26" s="61">
+        <v>31937</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" s="39" customFormat="1" spans="1:16">
+      <c r="A27" s="61"/>
+      <c r="B27" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="61">
+        <v>60300</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="45"/>
-    </row>
-    <row r="28" s="23" customFormat="1" ht="15.5" spans="1:16">
-      <c r="A28" s="45"/>
-      <c r="B28" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="46" t="s">
+      <c r="G27" s="61">
+        <v>48240</v>
+      </c>
+      <c r="H27" s="61">
+        <v>12060</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="61"/>
+    </row>
+    <row r="28" s="39" customFormat="1" spans="1:16">
+      <c r="A28" s="61"/>
+      <c r="B28" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="61">
+        <v>146131</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="61">
+        <v>116905</v>
+      </c>
+      <c r="H28" s="61">
+        <v>29226.2</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="61"/>
+    </row>
+    <row r="29" s="39" customFormat="1" spans="1:16">
+      <c r="A29" s="61"/>
+      <c r="B29" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="61">
+        <v>123700</v>
+      </c>
+      <c r="E29" s="61"/>
+      <c r="F29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="61"/>
+    </row>
+    <row r="30" s="39" customFormat="1" spans="1:16">
+      <c r="A30" s="61"/>
+      <c r="B30" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="61">
+        <v>48000</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="61"/>
+    </row>
+    <row r="31" s="39" customFormat="1" spans="1:9">
+      <c r="A31" s="61"/>
+      <c r="B31" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="62">
+        <v>82352.5</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="45">
-        <v>146131</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="45"/>
-    </row>
-    <row r="29" s="23" customFormat="1" spans="1:16">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="45"/>
-    </row>
-    <row r="30" s="23" customFormat="1" spans="1:16">
-      <c r="A30" s="45"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="45"/>
-    </row>
-    <row r="31" s="23" customFormat="1" spans="1:9">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-    </row>
-    <row r="32" s="23" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" s="23" customFormat="1" spans="1:9">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45" t="s">
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" s="39" customFormat="1" spans="1:9">
+      <c r="A32" s="61"/>
+      <c r="B32" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="61">
+        <v>12499</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" s="39" customFormat="1" spans="1:9">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="52">
+      <c r="C33" s="61"/>
+      <c r="D33" s="63">
         <f>SUM(D3:D32)</f>
-        <v>3113519.6</v>
-      </c>
-      <c r="E33" s="52">
+        <v>3327352.5</v>
+      </c>
+      <c r="E33" s="63">
         <f>SUM(E3:E32)</f>
         <v>688291</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="52">
+      <c r="F33" s="61"/>
+      <c r="G33" s="63">
         <f>SUM(G3:G32)</f>
-        <v>1572134.4</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" s="23" customFormat="1" spans="7:8">
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" s="23" customFormat="1" spans="11:13">
-      <c r="K35" s="68"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="52"/>
-    </row>
-    <row r="36" s="23" customFormat="1" spans="11:13">
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="45"/>
-    </row>
-    <row r="37" s="23" customFormat="1" spans="11:13">
-      <c r="K37" s="47"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" s="23" customFormat="1" ht="15.5" spans="10:13">
-      <c r="J38" s="31">
+        <v>1889626.4</v>
+      </c>
+      <c r="H33" s="63"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" s="39" customFormat="1" spans="7:8">
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+    </row>
+    <row r="35" s="39" customFormat="1" spans="11:13">
+      <c r="K35" s="79"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="63"/>
+    </row>
+    <row r="36" s="39" customFormat="1" spans="11:13">
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" s="39" customFormat="1" spans="11:13">
+      <c r="K37" s="82"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="61"/>
+    </row>
+    <row r="38" s="39" customFormat="1" spans="10:13">
+      <c r="J38" s="47">
         <v>129861</v>
       </c>
-      <c r="K38" s="47"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="45"/>
-    </row>
-    <row r="39" s="23" customFormat="1" spans="10:13">
-      <c r="J39" s="28">
+      <c r="K38" s="82"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="61"/>
+    </row>
+    <row r="39" s="39" customFormat="1" spans="10:13">
+      <c r="J39" s="44">
         <v>189726</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="52"/>
-    </row>
-    <row r="40" s="23" customFormat="1" spans="10:13">
-      <c r="J40" s="28">
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="63"/>
+    </row>
+    <row r="40" s="39" customFormat="1" spans="10:13">
+      <c r="J40" s="44">
         <v>151270</v>
       </c>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-    </row>
-    <row r="41" s="23" customFormat="1" spans="10:13">
-      <c r="J41" s="31">
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+    </row>
+    <row r="41" s="39" customFormat="1" spans="10:13">
+      <c r="J41" s="47">
         <v>100581</v>
       </c>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-    </row>
-    <row r="42" s="23" customFormat="1" spans="10:10">
-      <c r="J42" s="31">
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+    </row>
+    <row r="42" s="39" customFormat="1" spans="10:10">
+      <c r="J42" s="47">
         <v>72789</v>
       </c>
     </row>
-    <row r="43" s="23" customFormat="1" spans="3:10">
-      <c r="C43" s="23">
+    <row r="43" s="39" customFormat="1" spans="3:10">
+      <c r="C43" s="39">
         <v>10000</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="38">
         <v>181100</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>10000</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="38">
         <v>123950</v>
       </c>
     </row>
@@ -3255,57 +3572,57 @@
       <c r="C45">
         <v>30000</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="47">
         <v>146736</v>
       </c>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="22">
+      <c r="J46" s="38">
         <v>142675</v>
       </c>
     </row>
     <row r="47" spans="10:10">
-      <c r="J47" s="37">
+      <c r="J47" s="53">
         <v>129209</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="40">
+      <c r="J48" s="56">
         <v>120097</v>
       </c>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="22">
+      <c r="J49" s="38">
         <v>186300</v>
       </c>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="31">
+      <c r="J50" s="47">
         <v>127480</v>
       </c>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="44">
+      <c r="J51" s="60">
         <v>350063</v>
       </c>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="22">
+      <c r="J52" s="38">
         <v>131168</v>
       </c>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="44">
+      <c r="J53" s="60">
         <v>87613</v>
       </c>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="22">
+      <c r="J54" s="38">
         <v>34882</v>
       </c>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="22">
+      <c r="J55" s="38">
         <v>31500</v>
       </c>
     </row>
@@ -3316,7 +3633,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I24" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I29" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -3338,166 +3655,166 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8952380952381" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="10.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="10.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="14.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.447619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>64</v>
+      <c r="C2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3511,20 +3828,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.8952380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="46.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="12.8909090909091" customWidth="1"/>
-    <col min="5" max="5" width="14.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="9.57142857142857"/>
+    <col min="2" max="2" width="49.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="12.8952380952381" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="2:12">
+    <row r="1" ht="15.75" spans="2:12">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -3540,19 +3858,19 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -3569,10 +3887,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6">
         <v>400</v>
@@ -3592,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6">
         <v>300</v>
@@ -3618,10 +3936,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6">
         <v>600</v>
@@ -3644,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3663,10 +3981,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
@@ -3691,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4">
         <v>360</v>
@@ -3711,10 +4029,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4">
         <v>360</v>
@@ -3743,18 +4061,18 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.25" spans="1:5">
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="9">
@@ -3762,43 +4080,43 @@
         <v>165495</v>
       </c>
     </row>
-    <row r="17" ht="15.25" spans="2:8">
+    <row r="17" ht="15.75" spans="2:8">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="16.25" spans="1:8">
+    <row r="18" ht="32.25" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="16.25" spans="1:8">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6">
         <v>700</v>
@@ -3810,15 +4128,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="16.25" spans="1:8">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="4">
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D20" s="6">
         <v>220</v>
@@ -3830,15 +4148,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="16.25" spans="1:8">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="4">
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D21" s="6">
         <v>110</v>
@@ -3850,15 +4168,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="16.25" spans="1:8">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6">
         <v>600</v>
@@ -3871,15 +4189,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" ht="16.25" spans="1:10">
+    <row r="23" ht="16.5" spans="1:10">
       <c r="A23" s="4">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D23" s="6">
         <v>600</v>
@@ -3891,15 +4209,15 @@
         <v>127605</v>
       </c>
     </row>
-    <row r="24" ht="16.25" spans="1:5">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="4">
         <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4">
         <v>110</v>
@@ -3908,15 +4226,15 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="25" ht="16.25" spans="1:5">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="4">
         <v>7</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4">
         <v>220</v>
@@ -3925,7 +4243,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="26" ht="16.25" spans="1:5">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="4" t="s">
@@ -3937,22 +4255,22 @@
         <v>117250</v>
       </c>
     </row>
-    <row r="27" ht="16.25" spans="1:5">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.25" spans="1:5">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="9">
@@ -3960,37 +4278,37 @@
         <v>117250</v>
       </c>
     </row>
-    <row r="31" ht="15.25" spans="2:2">
+    <row r="31" ht="15.75" spans="2:2">
       <c r="B31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" ht="16.25" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" ht="32.25" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" ht="16.25" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:5">
       <c r="A33" s="4">
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D33" s="6">
         <v>110</v>
@@ -3999,15 +4317,15 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="34" ht="16.25" spans="1:5">
+    <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="4">
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D34" s="6">
         <v>300</v>
@@ -4016,15 +4334,15 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="35" ht="16.25" spans="1:5">
+    <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="4">
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D35" s="6">
         <v>400</v>
@@ -4033,15 +4351,15 @@
         <v>50920</v>
       </c>
     </row>
-    <row r="36" ht="16.25" spans="1:5">
+    <row r="36" ht="16.5" spans="1:5">
       <c r="A36" s="4">
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D36" s="6">
         <v>600</v>
@@ -4050,15 +4368,15 @@
         <v>60660</v>
       </c>
     </row>
-    <row r="37" ht="16.25" spans="1:5">
+    <row r="37" ht="16.5" spans="1:5">
       <c r="A37" s="4">
         <v>5</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D37" s="6">
         <v>200</v>
@@ -4067,15 +4385,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" ht="16.25" spans="1:5">
+    <row r="38" ht="16.5" spans="1:5">
       <c r="A38" s="4">
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D38" s="4">
         <v>300</v>
@@ -4084,15 +4402,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" ht="16.25" spans="1:5">
+    <row r="39" ht="16.5" spans="1:5">
       <c r="A39" s="4">
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4">
         <v>450</v>
@@ -4101,15 +4419,15 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="40" ht="16.25" spans="1:5">
+    <row r="40" ht="16.5" spans="1:5">
       <c r="A40" s="4">
         <v>8</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4">
         <v>540</v>
@@ -4118,15 +4436,15 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" ht="16.25" spans="1:5">
+    <row r="41" ht="16.5" spans="1:5">
       <c r="A41" s="4">
         <v>9</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D41" s="4">
         <v>540</v>
@@ -4135,30 +4453,30 @@
         <v>540</v>
       </c>
     </row>
-    <row r="42" ht="16.25" spans="1:5">
+    <row r="42" ht="16.5" spans="1:5">
       <c r="A42" s="4">
         <v>10</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="14">
         <v>100000</v>
       </c>
     </row>
-    <row r="43" ht="16.25" spans="1:5">
+    <row r="43" ht="16.5" spans="1:5">
       <c r="A43" s="4">
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D43" s="4">
         <v>100</v>
@@ -4167,15 +4485,15 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="44" ht="16.25" spans="1:5">
+    <row r="44" ht="16.5" spans="1:5">
       <c r="A44" s="4">
         <v>12</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D44" s="4">
         <v>100</v>
@@ -4184,15 +4502,15 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="45" ht="16.25" spans="1:5">
+    <row r="45" ht="16.5" spans="1:5">
       <c r="A45" s="4">
         <v>13</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -4201,15 +4519,15 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="46" ht="16.25" spans="1:5">
+    <row r="46" ht="16.5" spans="1:5">
       <c r="A46" s="4">
         <v>14</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -4218,15 +4536,15 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="47" ht="16.25" spans="1:5">
+    <row r="47" ht="16.5" spans="1:5">
       <c r="A47" s="4">
         <v>15</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -4235,15 +4553,15 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="48" ht="16.25" spans="1:5">
+    <row r="48" ht="16.5" spans="1:5">
       <c r="A48" s="4">
         <v>16</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D48" s="4">
         <v>750</v>
@@ -4252,7 +4570,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="49" ht="16.25" spans="1:5">
+    <row r="49" ht="16.5" spans="1:5">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="4" t="s">
@@ -4264,22 +4582,22 @@
         <v>356180</v>
       </c>
     </row>
-    <row r="50" ht="16.25" spans="1:5">
+    <row r="50" ht="16.5" spans="1:5">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.25" spans="1:5">
+    <row r="51" ht="16.5" spans="1:5">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="9">
@@ -4287,30 +4605,30 @@
         <v>356180</v>
       </c>
     </row>
-    <row r="55" ht="15.25"/>
-    <row r="56" ht="16.25" spans="1:5">
+    <row r="55" ht="15.75"/>
+    <row r="56" ht="32.25" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" ht="16.25" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:5">
       <c r="A57" s="4">
         <v>1</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4318,15 +4636,15 @@
         <v>70013</v>
       </c>
     </row>
-    <row r="58" ht="16.25" spans="1:5">
+    <row r="58" ht="16.5" spans="1:5">
       <c r="A58" s="16">
         <v>2</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D58" s="4">
         <v>600</v>
@@ -4335,15 +4653,15 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="59" ht="16.25" spans="1:5">
+    <row r="59" ht="16.5" spans="1:5">
       <c r="A59" s="16">
         <v>3</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D59" s="4">
         <v>400</v>
@@ -4352,15 +4670,15 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="60" ht="16.25" spans="1:5">
+    <row r="60" ht="16.5" spans="1:5">
       <c r="A60" s="16">
         <v>4</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -4369,7 +4687,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="61" ht="16.25" spans="1:5">
+    <row r="61" ht="16.5" spans="1:5">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="4" t="s">
@@ -4381,22 +4699,22 @@
         <v>87613</v>
       </c>
     </row>
-    <row r="62" ht="16.25" spans="1:5">
+    <row r="62" ht="16.5" spans="1:5">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="16.25" spans="1:5">
+    <row r="63" ht="16.5" spans="1:5">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="9">
@@ -4406,37 +4724,37 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:1">
       <c r="A65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" ht="16.25" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" ht="32.25" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" ht="16.25" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:5">
       <c r="A67" s="4">
         <v>1</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -4444,12 +4762,12 @@
         <v>37360</v>
       </c>
     </row>
-    <row r="68" ht="16.25" spans="1:5">
+    <row r="68" ht="16.5" spans="1:5">
       <c r="A68" s="16">
         <v>2</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -4457,12 +4775,12 @@
         <v>26233.6</v>
       </c>
     </row>
-    <row r="69" ht="16.25" spans="1:5">
+    <row r="69" ht="16.5" spans="1:5">
       <c r="A69" s="16">
         <v>3</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -4470,15 +4788,15 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="70" ht="16.25" spans="1:5">
+    <row r="70" ht="16.5" spans="1:5">
       <c r="A70" s="16">
         <v>4</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D70" s="4">
         <v>200</v>
@@ -4487,15 +4805,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="71" ht="16.25" spans="1:5">
+    <row r="71" ht="16.5" spans="1:5">
       <c r="A71" s="16">
         <v>5</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D71" s="4">
         <v>300</v>
@@ -4504,15 +4822,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="72" ht="16.25" spans="1:5">
+    <row r="72" ht="16.5" spans="1:5">
       <c r="A72" s="16">
         <v>6</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D72" s="4">
         <v>300</v>
@@ -4521,15 +4839,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" ht="16.25" spans="1:5">
+    <row r="73" ht="16.5" spans="1:5">
       <c r="A73" s="16">
         <v>7</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D73" s="4">
         <v>50</v>
@@ -4538,15 +4856,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" ht="16.25" spans="1:5">
+    <row r="74" ht="16.5" spans="1:5">
       <c r="A74" s="16">
         <v>8</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D74" s="4">
         <v>50</v>
@@ -4555,15 +4873,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" ht="16.25" spans="1:5">
+    <row r="75" ht="16.5" spans="1:5">
       <c r="A75" s="16">
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D75" s="4">
         <v>400</v>
@@ -4572,15 +4890,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" ht="16.25" spans="1:5">
+    <row r="76" ht="16.5" spans="1:5">
       <c r="A76" s="16">
         <v>10</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D76" s="4">
         <v>200</v>
@@ -4589,15 +4907,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="77" ht="16.25" spans="1:5">
+    <row r="77" ht="16.5" spans="1:5">
       <c r="A77" s="16">
         <v>11</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D77" s="4">
         <v>100</v>
@@ -4606,15 +4924,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" ht="16.25" spans="1:5">
+    <row r="78" ht="16.5" spans="1:5">
       <c r="A78" s="16">
         <v>12</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D78" s="4">
         <v>100</v>
@@ -4623,15 +4941,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" ht="16.25" spans="1:5">
+    <row r="79" ht="16.5" spans="1:5">
       <c r="A79" s="16">
         <v>13</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D79" s="4">
         <v>15</v>
@@ -4640,12 +4958,12 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="80" ht="16.25" spans="1:5">
+    <row r="80" ht="16.5" spans="1:5">
       <c r="A80" s="16">
         <v>14</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4">
         <v>9</v>
@@ -4657,12 +4975,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" ht="16.25" spans="1:5">
+    <row r="81" ht="16.5" spans="1:5">
       <c r="A81" s="16">
         <v>15</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4">
         <v>6</v>
@@ -4674,10 +4992,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" ht="15.5" spans="1:5">
+    <row r="82" ht="16.5" spans="1:5">
       <c r="A82" s="8"/>
       <c r="B82" s="19" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -4688,22 +5006,22 @@
         <v>77379.6</v>
       </c>
     </row>
-    <row r="83" ht="16.25" spans="1:5">
+    <row r="83" ht="16.5" spans="1:5">
       <c r="A83" s="8"/>
       <c r="B83" s="18"/>
       <c r="C83" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="16.25" spans="1:5">
+    <row r="84" ht="16.5" spans="1:5">
       <c r="A84" s="8"/>
       <c r="B84" s="18"/>
       <c r="C84" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="9">
@@ -4711,37 +5029,37 @@
         <v>77379.6</v>
       </c>
     </row>
-    <row r="86" ht="15.25" spans="1:2">
+    <row r="86" ht="15.75" spans="1:2">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" ht="16.25" spans="1:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" ht="32.25" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" ht="16.25" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="1:5">
       <c r="A88" s="4">
         <v>1</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -4749,15 +5067,15 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="89" ht="16.25" spans="1:5">
+    <row r="89" ht="16.5" spans="1:5">
       <c r="A89" s="16">
         <v>2</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D89" s="4">
         <v>400</v>
@@ -4766,15 +5084,15 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="90" ht="16.25" spans="1:5">
+    <row r="90" ht="16.5" spans="1:5">
       <c r="A90" s="16">
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D90" s="4">
         <v>300</v>
@@ -4783,15 +5101,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" ht="16.25" spans="1:5">
+    <row r="91" ht="16.5" spans="1:5">
       <c r="A91" s="16">
         <v>4</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D91" s="4">
         <v>200</v>
@@ -4800,15 +5118,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" ht="16.25" spans="1:5">
+    <row r="92" ht="16.5" spans="1:5">
       <c r="A92" s="16">
         <v>5</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D92" s="4">
         <v>300</v>
@@ -4817,15 +5135,15 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="93" ht="16.25" spans="1:5">
+    <row r="93" ht="16.5" spans="1:5">
       <c r="A93" s="16">
         <v>6</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D93" s="4">
         <v>360</v>
@@ -4834,15 +5152,15 @@
         <v>10332</v>
       </c>
     </row>
-    <row r="94" ht="16.25" spans="1:5">
+    <row r="94" ht="16.5" spans="1:5">
       <c r="A94" s="16">
         <v>7</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D94" s="4">
         <v>15</v>
@@ -4851,15 +5169,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="95" ht="28.75" spans="1:5">
+    <row r="95" ht="30.75" spans="1:5">
       <c r="A95" s="16">
         <v>8</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D95" s="4">
         <v>540</v>
@@ -4868,15 +5186,15 @@
         <v>24732</v>
       </c>
     </row>
-    <row r="96" ht="28.75" spans="1:5">
+    <row r="96" ht="30.75" spans="1:5">
       <c r="A96" s="16">
         <v>9</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D96" s="4">
         <v>15</v>
@@ -4885,15 +5203,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" ht="28.75" spans="1:5">
+    <row r="97" ht="30.75" spans="1:5">
       <c r="A97" s="16">
         <v>10</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D97" s="4">
         <v>360</v>
@@ -4902,15 +5220,15 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="98" ht="28.75" spans="1:5">
+    <row r="98" ht="30.75" spans="1:5">
       <c r="A98" s="16">
         <v>11</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D98" s="4">
         <v>15</v>
@@ -4919,15 +5237,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" ht="16.25" spans="1:5">
+    <row r="99" ht="16.5" spans="1:5">
       <c r="A99" s="16">
         <v>12</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D99" s="4">
         <v>300</v>
@@ -4936,15 +5254,15 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="100" ht="16.25" spans="1:5">
+    <row r="100" ht="16.5" spans="1:5">
       <c r="A100" s="16">
         <v>13</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D100" s="4">
         <v>15</v>
@@ -4953,15 +5271,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" ht="16.25" spans="1:5">
+    <row r="101" ht="16.5" spans="1:5">
       <c r="A101" s="16">
         <v>14</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D101" s="4">
         <v>720</v>
@@ -4970,15 +5288,15 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="102" ht="16.25" spans="1:5">
+    <row r="102" ht="16.5" spans="1:5">
       <c r="A102" s="16">
         <v>15</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D102" s="4">
         <v>15</v>
@@ -4987,15 +5305,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" ht="16.25" spans="1:5">
+    <row r="103" ht="16.5" spans="1:5">
       <c r="A103" s="16">
         <v>16</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D103" s="4">
         <v>360</v>
@@ -5004,15 +5322,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" ht="16.25" spans="1:5">
+    <row r="104" ht="16.5" spans="1:5">
       <c r="A104" s="16">
         <v>17</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D104" s="4">
         <v>360</v>
@@ -5021,7 +5339,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" ht="16.25" spans="1:5">
+    <row r="105" ht="16.5" spans="1:5">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="4" t="s">
@@ -5033,22 +5351,22 @@
         <v>206593</v>
       </c>
     </row>
-    <row r="106" ht="16.25" spans="1:5">
+    <row r="106" ht="16.5" spans="1:5">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="16.25" spans="1:5">
+    <row r="107" ht="16.5" spans="1:5">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="9">
@@ -5056,34 +5374,34 @@
         <v>206593</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" ht="15.75" spans="1:1">
       <c r="A109" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" ht="16.25" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" ht="32.25" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" ht="16.25" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="1:5">
       <c r="A111" s="4">
         <v>1</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -5091,15 +5409,15 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="112" ht="16.25" spans="1:5">
+    <row r="112" ht="16.5" spans="1:5">
       <c r="A112" s="4">
         <v>2</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D112" s="4">
         <v>750</v>
@@ -5108,15 +5426,15 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="113" ht="28.75" spans="1:5">
+    <row r="113" ht="30.75" spans="1:5">
       <c r="A113" s="4">
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D113" s="4">
         <v>600</v>
@@ -5125,15 +5443,15 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="114" ht="16.25" spans="1:5">
+    <row r="114" ht="16.5" spans="1:5">
       <c r="A114" s="4">
         <v>4</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D114" s="4">
         <v>600</v>
@@ -5142,15 +5460,15 @@
         <v>6360</v>
       </c>
     </row>
-    <row r="115" ht="16.25" spans="1:5">
+    <row r="115" ht="16.5" spans="1:5">
       <c r="A115" s="4">
         <v>5</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D115" s="4">
         <v>110</v>
@@ -5159,15 +5477,15 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="116" ht="16.25" spans="1:5">
+    <row r="116" ht="16.5" spans="1:5">
       <c r="A116" s="4">
         <v>6</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D116" s="4">
         <v>50</v>
@@ -5176,7 +5494,7 @@
         <v>18850</v>
       </c>
     </row>
-    <row r="117" ht="16.25" spans="1:5">
+    <row r="117" ht="16.5" spans="1:5">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="4" t="s">
@@ -5188,22 +5506,22 @@
         <v>146131</v>
       </c>
     </row>
-    <row r="118" ht="16.25" spans="1:5">
+    <row r="118" ht="16.5" spans="1:5">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="16.25" spans="1:5">
+    <row r="119" ht="16.5" spans="1:5">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="9">
@@ -5211,34 +5529,34 @@
         <v>146131</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" ht="15.75" spans="2:2">
       <c r="B122" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" ht="16.25" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" ht="32.25" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" ht="16.5" spans="1:5">
       <c r="A124" s="4">
         <v>1</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C124" s="6">
         <v>23</v>
@@ -5250,12 +5568,12 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="125" ht="16.25" spans="1:5">
+    <row r="125" ht="16.5" spans="1:5">
       <c r="A125" s="16">
         <v>2</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C125" s="4">
         <v>9</v>
@@ -5267,12 +5585,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="126" ht="15.75" spans="1:5">
+    <row r="126" ht="16.5" spans="1:5">
       <c r="A126" s="16">
         <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C126" s="6">
         <v>23</v>
@@ -5284,12 +5602,12 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="127" ht="16.25" spans="1:5">
+    <row r="127" ht="16.5" spans="1:5">
       <c r="A127" s="16">
         <v>4</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C127" s="4">
         <v>9</v>
@@ -5301,12 +5619,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="128" ht="15.75" spans="1:5">
+    <row r="128" ht="16.5" spans="1:5">
       <c r="A128" s="16">
         <v>5</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C128" s="6">
         <v>23</v>
@@ -5318,12 +5636,12 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="129" ht="16.25" spans="1:5">
+    <row r="129" ht="16.5" spans="1:5">
       <c r="A129" s="16">
         <v>6</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C129" s="4">
         <v>9</v>
@@ -5335,7 +5653,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="130" ht="16.25" spans="1:5">
+    <row r="130" ht="16.5" spans="1:5">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="4" t="s">
@@ -5347,22 +5665,22 @@
         <v>63750</v>
       </c>
     </row>
-    <row r="131" ht="16.25" spans="1:5">
+    <row r="131" ht="16.5" spans="1:5">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="16.25" spans="1:5">
+    <row r="132" ht="16.5" spans="1:5">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="9">
@@ -5370,8 +5688,871 @@
         <v>63750</v>
       </c>
     </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" spans="1:1">
+      <c r="A135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" ht="32.25" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" ht="16.5" spans="1:5">
+      <c r="A137" s="4">
+        <v>1</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
+      <c r="D137" s="6">
+        <v>25000</v>
+      </c>
+      <c r="E137" s="9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="138" ht="16.5" spans="1:5">
+      <c r="A138" s="16">
+        <v>2</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4">
+        <v>300</v>
+      </c>
+      <c r="E138" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" ht="16.5" spans="1:5">
+      <c r="A139" s="16">
+        <v>3</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="4">
+        <v>30</v>
+      </c>
+      <c r="E139" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" ht="16.5" spans="1:5">
+      <c r="A140" s="16">
+        <v>4</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D140" s="4">
+        <v>300</v>
+      </c>
+      <c r="E140" s="9">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="141" ht="16.5" spans="1:5">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="9">
+        <f>SUM(E137:E140)</f>
+        <v>28720</v>
+      </c>
+    </row>
+    <row r="142" ht="16.5" spans="1:5">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="16.5" spans="1:5">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" s="12"/>
+      <c r="E143" s="9">
+        <f>SUM(E141)</f>
+        <v>28720</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" spans="1:1">
+      <c r="A145" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" ht="32.25" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" ht="19.5" spans="1:5">
+      <c r="A147" s="20">
+        <v>1</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" ht="16.5" spans="1:5">
+      <c r="A148" s="22">
+        <v>1.1</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="6">
+        <v>35</v>
+      </c>
+      <c r="D148" s="6">
+        <v>700</v>
+      </c>
+      <c r="E148" s="9">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="149" ht="16.5" spans="1:5">
+      <c r="A149" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C149" s="4">
+        <v>84</v>
+      </c>
+      <c r="D149" s="4">
+        <v>700</v>
+      </c>
+      <c r="E149" s="9">
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="150" ht="16.5" spans="1:5">
+      <c r="A150" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" s="4">
+        <v>29</v>
+      </c>
+      <c r="D150" s="4">
+        <v>700</v>
+      </c>
+      <c r="E150" s="9">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="151" ht="16.5" spans="1:5">
+      <c r="A151" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" s="4">
+        <v>9</v>
+      </c>
+      <c r="D151" s="4">
+        <v>700</v>
+      </c>
+      <c r="E151" s="9">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="152" ht="16.5" spans="1:5">
+      <c r="A152" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C152" s="4">
+        <v>23</v>
+      </c>
+      <c r="D152" s="4">
+        <v>600</v>
+      </c>
+      <c r="E152" s="9">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="153" ht="19.5" spans="1:5">
+      <c r="A153" s="4">
+        <v>2</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" ht="16.5" spans="1:5">
+      <c r="A154" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="6">
+        <v>25000</v>
+      </c>
+      <c r="E154" s="9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="155" ht="16.5" spans="1:5">
+      <c r="A155" s="24">
+        <v>2.2</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+      <c r="D155" s="4">
+        <v>300</v>
+      </c>
+      <c r="E155" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" ht="16.5" spans="1:5">
+      <c r="A156" s="24">
+        <v>2.3</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D156" s="4">
+        <v>30</v>
+      </c>
+      <c r="E156" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" ht="16.5" spans="1:5">
+      <c r="A157" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" s="4">
+        <v>300</v>
+      </c>
+      <c r="E157" s="9">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="158" ht="16.5" spans="1:5">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="9">
+        <f>SUM(E147:E157)</f>
+        <v>152420</v>
+      </c>
+    </row>
+    <row r="159" ht="16.5" spans="1:5">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="16.5" spans="1:5">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="9">
+        <f>SUM(E158)</f>
+        <v>152420</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" spans="1:1">
+      <c r="A162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" ht="16.5" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" ht="19.5" spans="1:5">
+      <c r="A164" s="4">
+        <v>1</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" ht="16.5" spans="1:5">
+      <c r="A165" s="16"/>
+      <c r="B165" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" ht="16.5" spans="1:5">
+      <c r="A166" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" s="4">
+        <v>4</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E166" s="28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="167" ht="16.5" spans="1:5">
+      <c r="A167" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" s="4">
+        <v>4</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E167" s="28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="168" ht="16.5" spans="1:5">
+      <c r="A168" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168" s="4">
+        <v>4</v>
+      </c>
+      <c r="D168" s="4">
+        <v>600</v>
+      </c>
+      <c r="E168" s="28">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="169" ht="16.5" spans="1:5">
+      <c r="A169" s="29">
+        <v>2</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D169" s="4">
+        <v>750</v>
+      </c>
+      <c r="E169" s="28">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="170" ht="16.5" spans="1:5">
+      <c r="A170" s="29">
+        <v>3</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D170" s="4">
+        <v>300</v>
+      </c>
+      <c r="E170" s="28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" ht="16.5" spans="1:5">
+      <c r="A171" s="29">
+        <v>4</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="4">
+        <v>750</v>
+      </c>
+      <c r="E171" s="28">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="172" ht="16.5" spans="1:5">
+      <c r="A172" s="29">
+        <v>5</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="4">
+        <v>750</v>
+      </c>
+      <c r="E172" s="28">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="173" ht="16.5" spans="1:5">
+      <c r="A173" s="29">
+        <v>6</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D173" s="4">
+        <v>750</v>
+      </c>
+      <c r="E173" s="28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="174" ht="16.5" spans="1:5">
+      <c r="A174" s="29">
+        <v>7</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D174" s="4">
+        <v>750</v>
+      </c>
+      <c r="E174" s="28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="175" ht="16.5" spans="1:5">
+      <c r="A175" s="29">
+        <v>8</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" s="4">
+        <v>100</v>
+      </c>
+      <c r="E175" s="28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" ht="16.5" spans="1:5">
+      <c r="A176" s="29">
+        <v>9</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D176" s="4">
+        <v>100</v>
+      </c>
+      <c r="E176" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" ht="16.5" spans="1:5">
+      <c r="A177" s="29">
+        <v>10</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D177" s="4">
+        <v>50</v>
+      </c>
+      <c r="E177" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" ht="16.5" spans="1:5">
+      <c r="A178" s="29">
+        <v>11</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D178" s="4">
+        <v>100</v>
+      </c>
+      <c r="E178" s="28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="179" ht="16.5" spans="1:5">
+      <c r="A179" s="29">
+        <v>12</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D179" s="4">
+        <v>600</v>
+      </c>
+      <c r="E179" s="28">
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="180" ht="16.5" spans="1:5">
+      <c r="A180" s="29">
+        <v>13</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D180" s="4">
+        <v>300</v>
+      </c>
+      <c r="E180" s="28">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="181" ht="16.5" spans="1:5">
+      <c r="A181" s="29">
+        <v>14</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D181" s="4">
+        <v>720</v>
+      </c>
+      <c r="E181" s="28">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="182" ht="16.5" spans="1:5">
+      <c r="A182" s="29">
+        <v>15</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D182" s="4">
+        <v>15</v>
+      </c>
+      <c r="E182" s="28">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="183" ht="16.5" spans="1:5">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="9">
+        <f>SUM(E164:E182)</f>
+        <v>82352.5</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" spans="1:5">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="16.5" spans="1:5">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D185" s="12"/>
+      <c r="E185" s="9">
+        <f>SUM(E183)</f>
+        <v>82352.5</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" spans="1:1">
+      <c r="A188" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" ht="16.5" spans="1:5">
+      <c r="A189" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" ht="30.75" spans="1:5">
+      <c r="A190" s="31">
+        <v>1</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="9"/>
+    </row>
+    <row r="191" ht="30.75" spans="1:8">
+      <c r="A191" s="16">
+        <v>2</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="9"/>
+      <c r="H191" s="34"/>
+    </row>
+    <row r="192" ht="16.5" spans="1:5">
+      <c r="A192" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B192" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" s="4">
+        <v>15</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E192" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="193" ht="16.5" spans="1:5">
+      <c r="A193" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C193" s="4">
+        <v>15</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E193" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="194" ht="16.5" spans="1:5">
+      <c r="A194" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C194" s="4">
+        <v>30</v>
+      </c>
+      <c r="D194" s="4">
+        <v>600</v>
+      </c>
+      <c r="E194" s="9">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="195" ht="16.5" spans="1:5">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="9">
+        <f>SUM(E190:E194)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="196" ht="16.5" spans="1:5">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" ht="16.5" spans="1:5">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D197" s="12"/>
+      <c r="E197" s="9">
+        <f>SUM(E195)</f>
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="60">
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -5396,6 +6577,18 @@
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A49:A51"/>
@@ -5404,6 +6597,10 @@
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A117:A119"/>
     <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A195:A197"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B49:B51"/>
@@ -5412,6 +6609,10 @@
     <mergeCell ref="B105:B107"/>
     <mergeCell ref="B117:B119"/>
     <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B195:B197"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Fire work/Company/Basant/Billing Basant.xlsx
+++ b/Fire work/Company/Basant/Billing Basant.xlsx
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Fire work/Company/Basant/Billing Basant.xlsx
+++ b/Fire work/Company/Basant/Billing Basant.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\15042024\balaji-general-file\Fire work\Company\Basant\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BC4BB-5517-49FE-AB42-1D2F3A209E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Malad" sheetId="1" r:id="rId1"/>
     <sheet name="Borivali" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Borivali!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="292">
   <si>
     <t>Saimita</t>
   </si>
@@ -792,18 +786,159 @@
   <si>
     <t>2nd floor to 10th floor  25mm QD line (40 mtr/floor) rework</t>
   </si>
+  <si>
+    <t>NBF/1224/023 20% holding</t>
+  </si>
+  <si>
+    <t>NBF/0125/28 20% holding</t>
+  </si>
+  <si>
+    <t>Fire bucket installation</t>
+  </si>
+  <si>
+    <t>Fire Extingusher installation</t>
+  </si>
+  <si>
+    <t>Branch pipe nosel installation</t>
+  </si>
+  <si>
+    <t>Convance pipe installation</t>
+  </si>
+  <si>
+    <t>Double hosebix installation</t>
+  </si>
+  <si>
+    <t>Singal hosebox installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd floor sprinkler point </t>
+  </si>
+  <si>
+    <t>1st  floor dencher point</t>
+  </si>
+  <si>
+    <t>1st floor sprinkerl point</t>
+  </si>
+  <si>
+    <t>DG Signate</t>
+  </si>
+  <si>
+    <t>febuary</t>
+  </si>
+  <si>
+    <t>1st floor to 19 floor QD sprinkler fitting</t>
+  </si>
+  <si>
+    <t>Note : Testing done all the work completed.</t>
+  </si>
+  <si>
+    <t>15  nos</t>
+  </si>
+  <si>
+    <t>13 nos</t>
+  </si>
+  <si>
+    <t>16 nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0225/30   </t>
+  </si>
+  <si>
+    <t>1st floor to 19th floor Dencher nossel fitting and point extention</t>
+  </si>
+  <si>
+    <t>244 nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0225/31   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मंत्री- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री संजय कुमार राय(तरौका)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री प्रभाकर राय(मालटारी)   </t>
+  </si>
+  <si>
+    <t>श्री दुर्गेश राय(बछउर खुर्द)</t>
+  </si>
+  <si>
+    <t>श्री जितेंद्र राय (महुला)</t>
+  </si>
+  <si>
+    <t>श्री नवनीत राय ( खरगपुर)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री सुबाष राय (बरामदपुर)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">महामंत्री  </t>
+  </si>
+  <si>
+    <t>श्री जितेंद्र राय (मुहम्मदपुर)</t>
+  </si>
+  <si>
+    <t>श्री प्रद्युम्न राय (पटवध)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री मनीष राय (बांसगाॅव) </t>
+  </si>
+  <si>
+    <t>श्री नैतिक राय (डेउडादामोदरपुर)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री अरविंद राय (सुरजीपुर)                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री रितेश राय (वस्ती आखापुर) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री निखिल राय (मिशिरदीपुर) </t>
+  </si>
+  <si>
+    <t>श्री बृजेश राय (लखनपुर)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्री आनंद राय (बिहरोजपुर)                   </t>
+  </si>
+  <si>
+    <t>श्री रामानुज राय (कुरसौली)</t>
+  </si>
+  <si>
+    <t>कोषाध्यक्ष</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जिलाध्यक्ष                 </t>
+  </si>
+  <si>
+    <t>उपाध्यक्ष</t>
+  </si>
+  <si>
+    <t>कार्यकारी अध्यक्ष</t>
+  </si>
+  <si>
+    <t>चंद्रप्रकाश राय प्रिंस (मालटारी )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBF/0225/32   </t>
+  </si>
+  <si>
+    <t>31895 clear</t>
+  </si>
+  <si>
+    <t>20 % remaining</t>
+  </si>
+  <si>
+    <t>20% holding clear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,31 +963,31 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -871,14 +1006,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -925,164 +1060,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.05"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,13 +1081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,192 +1129,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1513,252 +1317,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1787,7 +1358,6 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1806,9 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1857,130 +1424,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1996,13 +1541,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2278,292 +1829,292 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.3619047619048" customWidth="1"/>
-    <col min="6" max="7" width="14.4571428571429" customWidth="1"/>
-    <col min="8" max="8" width="11.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="6" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="38">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="45">
         <v>45321</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="35">
         <v>189726</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="35">
         <v>151781</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="37">
         <v>151781</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="35">
         <v>37945</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="38">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="45">
         <v>45351</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>151270</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="37">
         <v>121016</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="37">
         <v>121016</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="35">
         <v>30254</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="38">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="45">
         <v>45381</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>181100</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="37">
         <v>144880</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="35">
         <v>36220</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="38">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="38">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="38">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="38">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="38">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="38">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="38">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="38">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="38">
+      <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="38">
+      <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="38">
+      <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
@@ -2576,1273 +2127,1543 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.3619047619048" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.7619047619048" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667"/>
-    <col min="9" max="9" width="23.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="21.552380952381" customWidth="1"/>
-    <col min="14" max="14" width="16.1047619047619" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125"/>
+    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="10" max="11" width="17.7265625" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.5">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="38">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="38">
         <v>45281</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="39">
         <v>30000</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="39">
         <v>30000</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="44">
+      <c r="G3" s="40"/>
+      <c r="H3" s="39">
         <v>0</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="38">
+      <c r="I3" s="39"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.5">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="38">
         <v>45291</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="39">
         <v>51000</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="39">
         <v>51000</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44">
+      <c r="G4" s="40"/>
+      <c r="H4" s="39">
         <v>0</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="38">
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.5">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="38">
         <v>45291</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="39">
         <v>30890</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="38">
+      <c r="M5" s="35"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="42">
         <v>70776</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <v>56621</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <v>14155</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="38">
+      <c r="M6" s="35"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="44">
         <v>45320</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="42">
         <v>129861</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="43">
         <v>103889</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="43">
         <v>103889</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="42">
         <v>25972</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="38">
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="38">
         <v>45321</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="39">
         <v>189726</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="39">
         <v>151781</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="40">
         <v>151781</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="39">
         <v>37945</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="38">
+    <row r="9" spans="1:16">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="38">
         <v>45351</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="39">
         <v>151270</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="39">
         <v>120000</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="40">
         <v>121016</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="39">
         <v>30254</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="38"/>
-      <c r="B10" s="49">
+      <c r="M9" s="61"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="35"/>
+      <c r="B10" s="44">
         <v>45351</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="42">
         <v>100581</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="38">
+      <c r="G10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="44">
         <v>45381</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="42">
         <v>72789</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="43">
         <v>58231</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="43">
         <v>58231</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="42">
         <v>14557</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="38">
+      <c r="L11" s="63"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="45">
         <v>45381</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <v>181100</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <v>116769</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="37">
         <v>144880</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="35">
         <v>36220</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="38">
+      <c r="L12" s="63"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="45">
         <v>45415</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="35">
         <v>123950</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="37">
         <v>99160</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <v>24970</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="38">
+      <c r="L13" s="63"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.5">
+      <c r="A14" s="35">
         <v>11</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="44">
         <v>45435</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="42">
         <v>146736</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="43">
         <v>115000</v>
       </c>
-      <c r="H14" s="47">
-        <v>29347.2</v>
-      </c>
-      <c r="I14" s="47" t="s">
+      <c r="H14" s="42">
+        <v>29347.200000000001</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="38"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="38">
+      <c r="L14" s="63"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.5">
+      <c r="A15" s="35">
         <v>12</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="45">
         <v>45437</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="35">
         <v>142675</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="37">
         <v>12000</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="38"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="38">
+      <c r="L15" s="63"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.5">
+      <c r="A16" s="35">
         <v>13</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="45">
         <v>45450</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="48">
         <v>129209</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="48">
         <v>129209</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="44"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="38">
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.5">
+      <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="49">
         <v>45471</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="51">
         <v>120097</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
       <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="42">
+      <c r="L17" s="63"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.5">
+      <c r="A18" s="37">
         <v>15</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="45">
         <v>45534</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>186300</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="35">
         <v>150000</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <v>37360</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="75"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="42">
+      <c r="I18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="61"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.5">
+      <c r="A19" s="37">
         <v>16</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="44">
         <v>45565</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="42">
         <v>127480</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="42">
         <v>101984</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="42">
         <v>25496</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="42"/>
       <c r="J19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="38">
+    <row r="20" spans="1:17" ht="15.5">
+      <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="45">
         <v>45565</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="35">
         <v>350063</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="35">
         <v>280050</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="35">
         <v>70013</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="38">
+    <row r="21" spans="1:17" ht="15.5">
+      <c r="A21" s="35">
         <v>18</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="45">
         <v>45565</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="35">
         <v>131168</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="38">
-        <v>104934.4</v>
-      </c>
-      <c r="H21" s="38">
-        <v>26233.6</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="38"/>
-      <c r="B22" s="50">
+      <c r="G21" s="35">
+        <v>104934.39999999999</v>
+      </c>
+      <c r="H21" s="35">
+        <v>26233.599999999999</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="K21" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="88">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.5">
+      <c r="A22" s="35"/>
+      <c r="B22" s="45">
         <v>45623</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="35">
         <v>87613</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="38" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="38"/>
-      <c r="K22" s="76"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38" t="s">
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="35">
+        <v>51488</v>
+      </c>
+      <c r="M22" s="35">
+        <v>51488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.5">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="35">
         <v>34882</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="35">
+        <v>18060</v>
+      </c>
+      <c r="L23" s="35">
+        <v>90300</v>
+      </c>
+      <c r="M23" s="35">
+        <v>72240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.5">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="35">
         <v>30750</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="35">
         <v>24600</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="35">
         <v>6150</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="77"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38" t="s">
+      <c r="J24" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="35">
+        <v>7320</v>
+      </c>
+      <c r="L24" s="35">
+        <v>36600</v>
+      </c>
+      <c r="M24" s="35">
+        <v>29280</v>
+      </c>
+      <c r="N24" s="66"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="35">
         <v>75770</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" s="39" customFormat="1" spans="1:9">
-      <c r="A26" s="61"/>
-      <c r="B26" s="38" t="s">
+      <c r="M25" s="71">
+        <f>SUM(M22:M24)</f>
+        <v>153008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="35">
         <v>159684</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="35">
         <v>127747</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="35">
         <v>31937</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.5">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="35">
+        <v>60300</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="35">
+        <v>48240</v>
+      </c>
+      <c r="H27" s="35">
+        <v>12060</v>
+      </c>
+      <c r="I27" s="35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" s="39" customFormat="1" spans="1:16">
-      <c r="A27" s="61"/>
-      <c r="B27" s="38" t="s">
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="35"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.5">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="61">
-        <v>60300</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="61">
-        <v>48240</v>
-      </c>
-      <c r="H27" s="61">
-        <v>12060</v>
-      </c>
-      <c r="I27" s="61" t="s">
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="35">
+        <v>146131</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="35">
+        <v>116905</v>
+      </c>
+      <c r="H28" s="35">
+        <v>29226.2</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="61"/>
-    </row>
-    <row r="28" s="39" customFormat="1" spans="1:16">
-      <c r="A28" s="61"/>
-      <c r="B28" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="61">
-        <v>146131</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="47" t="s">
+      <c r="J28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="35">
+        <v>98960</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="35"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.5">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="35">
+        <v>123700</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="35">
+        <v>98960</v>
+      </c>
+      <c r="H29" s="35">
+        <v>24740</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="35">
+        <v>20000</v>
+      </c>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="35"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.5">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="35">
+        <v>20000</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="61">
-        <v>116905</v>
-      </c>
-      <c r="H28" s="61">
-        <v>29226.2</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="61"/>
-    </row>
-    <row r="29" s="39" customFormat="1" spans="1:16">
-      <c r="A29" s="61"/>
-      <c r="B29" s="38" t="s">
+      <c r="G30" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="55">
+        <v>56770</v>
+      </c>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="35"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.5">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="61">
-        <v>123700</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="38" t="s">
+      <c r="C31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="55">
+        <v>70963</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="55">
+        <v>56770</v>
+      </c>
+      <c r="H31" s="55">
+        <v>16470</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="35">
+        <v>12340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.5">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="72">
+        <v>12340</v>
+      </c>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="72">
+        <v>12340</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="68">
+        <v>188070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="35">
+        <v>51488</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="35">
+        <v>51488</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.5">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="35">
+        <v>90300</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="61"/>
-    </row>
-    <row r="30" s="39" customFormat="1" spans="1:16">
-      <c r="A30" s="61"/>
-      <c r="B30" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="61">
-        <v>48000</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="47" t="s">
+      <c r="G34" s="35">
+        <v>72240</v>
+      </c>
+      <c r="H34" s="35">
+        <v>18060</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.5">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="35">
+        <v>36600</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="61"/>
-    </row>
-    <row r="31" s="39" customFormat="1" spans="1:9">
-      <c r="A31" s="61"/>
-      <c r="B31" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="62">
-        <v>82352.5</v>
-      </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" s="39" customFormat="1" spans="1:9">
-      <c r="A32" s="61"/>
-      <c r="B32" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="61">
-        <v>12499</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-    </row>
-    <row r="33" s="39" customFormat="1" spans="1:9">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61" t="s">
+      <c r="G35" s="35">
+        <v>29280</v>
+      </c>
+      <c r="H35" s="35">
+        <v>7320</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="67"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="63">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35">
         <f>SUM(D3:D32)</f>
-        <v>3327352.5</v>
-      </c>
-      <c r="E33" s="63">
+        <v>3287804</v>
+      </c>
+      <c r="D36" s="35">
         <f>SUM(E3:E32)</f>
         <v>688291</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63">
+      <c r="E36" s="35"/>
+      <c r="F36" s="35">
         <f>SUM(G3:G32)</f>
-        <v>1889626.4</v>
-      </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="61"/>
-    </row>
-    <row r="34" s="39" customFormat="1" spans="7:8">
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="35" s="39" customFormat="1" spans="11:13">
-      <c r="K35" s="79"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="63"/>
-    </row>
-    <row r="36" s="39" customFormat="1" spans="11:13">
-      <c r="K36" s="80"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="61"/>
-    </row>
-    <row r="37" s="39" customFormat="1" spans="11:13">
-      <c r="K37" s="82"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="61"/>
-    </row>
-    <row r="38" s="39" customFormat="1" spans="10:13">
-      <c r="J38" s="47">
+        <v>2077696.4</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="67"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="L37" s="73"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="35"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.5">
+      <c r="J38" s="42">
         <v>129861</v>
       </c>
-      <c r="K38" s="82"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="61"/>
-    </row>
-    <row r="39" s="39" customFormat="1" spans="10:13">
-      <c r="J39" s="44">
+      <c r="K38" s="42"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="35"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="H39" s="35">
+        <v>18060</v>
+      </c>
+      <c r="J39" s="39">
         <v>189726</v>
       </c>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="63"/>
-    </row>
-    <row r="40" s="39" customFormat="1" spans="10:13">
-      <c r="J40" s="44">
+      <c r="K39" s="39"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="H40" s="35">
+        <v>7320</v>
+      </c>
+      <c r="J40" s="39">
         <v>151270</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-    </row>
-    <row r="41" s="39" customFormat="1" spans="10:13">
-      <c r="J41" s="47">
+      <c r="K40" s="39"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="J41" s="42">
         <v>100581</v>
       </c>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-    </row>
-    <row r="42" s="39" customFormat="1" spans="10:10">
-      <c r="J42" s="47">
+      <c r="K41" s="42"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" customHeight="1">
+      <c r="J42" s="42">
         <v>72789</v>
       </c>
-    </row>
-    <row r="43" s="39" customFormat="1" spans="3:10">
-      <c r="C43" s="39">
+      <c r="K42" s="86"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="C43">
         <v>10000</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="35">
         <v>181100</v>
       </c>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="K43" s="87"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="B44" t="s">
         <v>68</v>
       </c>
       <c r="C44">
         <v>10000</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="35">
         <v>123950</v>
       </c>
-    </row>
-    <row r="45" spans="3:10">
+      <c r="K44" s="87"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="C45">
         <v>30000</v>
       </c>
-      <c r="J45" s="47">
+      <c r="J45" s="42">
         <v>146736</v>
       </c>
-    </row>
-    <row r="46" spans="10:10">
-      <c r="J46" s="38">
+      <c r="K45" s="86"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="J46" s="35">
         <v>142675</v>
       </c>
-    </row>
-    <row r="47" spans="10:10">
-      <c r="J47" s="53">
+      <c r="K46" s="87"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="J47" s="48">
         <v>129209</v>
       </c>
-    </row>
-    <row r="48" spans="10:10">
-      <c r="J48" s="56">
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="J48" s="51">
         <v>120097</v>
       </c>
-    </row>
-    <row r="49" spans="10:10">
-      <c r="J49" s="38">
+      <c r="K48" s="86"/>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="35">
         <v>186300</v>
       </c>
-    </row>
-    <row r="50" spans="10:10">
-      <c r="J50" s="47">
+      <c r="K49" s="87"/>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="42">
         <v>127480</v>
       </c>
-    </row>
-    <row r="51" spans="10:10">
-      <c r="J51" s="60">
+      <c r="K50" s="86"/>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="35">
         <v>350063</v>
       </c>
-    </row>
-    <row r="52" spans="10:10">
-      <c r="J52" s="38">
+      <c r="K51" s="87"/>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="35">
         <v>131168</v>
       </c>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="60">
+      <c r="K52" s="87"/>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53" s="35">
         <v>87613</v>
       </c>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="38">
+      <c r="K53" s="87"/>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="35">
         <v>34882</v>
       </c>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" s="38">
+      <c r="K54" s="87"/>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" s="35">
         <v>31500</v>
       </c>
-    </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="10">
+      <c r="K55" s="87"/>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56">
         <f>SUM(J38:J55)</f>
         <v>2437000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I29" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:I29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421C8C27-9697-4F84-AE48-BA804CCB142F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8952380952381" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.1047619047619" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.447619047619" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="G2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="G3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="H5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="H6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="H7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="G8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="H9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="H11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="H12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="G13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="H14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="H15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="H16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="G17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="H19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L197"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L231"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:E231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857"/>
-    <col min="2" max="2" width="49.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="12.8952380952381" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="2:12">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -3856,7 +3677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="16" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -3882,7 +3703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1" spans="1:11">
+    <row r="3" spans="1:12" ht="16" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3905,7 +3726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:11">
+    <row r="4" spans="1:12" ht="16" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3925,13 +3746,13 @@
         <v>2500</v>
       </c>
       <c r="J4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:11">
+    <row r="5" spans="1:12" ht="16" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3957,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1" spans="1:10">
+    <row r="6" spans="1:12" ht="16" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3973,10 +3794,10 @@
         <v>5000</v>
       </c>
       <c r="J6">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3995,16 +3816,16 @@
       <c r="H7">
         <v>10000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7">
         <f>SUM(J2:J6)</f>
-        <v>43.2</v>
-      </c>
-      <c r="K7" s="10">
+        <v>43.199999999999996</v>
+      </c>
+      <c r="K7">
         <f>SUM(K2:K6)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="8" ht="17.1" customHeight="1" spans="1:8">
+    <row r="8" spans="1:12" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4024,7 +3845,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" ht="17.1" customHeight="1" spans="1:8">
+    <row r="9" spans="1:12" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4040,47 +3861,47 @@
       <c r="E9" s="9">
         <v>360</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <f>SUM(H4:H8)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="10" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:12" ht="17.149999999999999" customHeight="1">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="9">
         <f>SUM(E3:E9)</f>
         <v>165495</v>
       </c>
     </row>
-    <row r="11" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:12" ht="17.149999999999999" customHeight="1">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="11">
+      <c r="D11" s="81"/>
+      <c r="E11" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="1:12" ht="15.5">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="9">
         <f>SUM(E10)</f>
         <v>165495</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:8">
+    <row r="17" spans="1:10">
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -4088,7 +3909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="32.25" spans="1:8">
+    <row r="18" spans="1:10" ht="15.5">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -4108,7 +3929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:8">
+    <row r="19" spans="1:10" ht="15.5">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -4121,14 +3942,14 @@
       <c r="D19" s="6">
         <v>700</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>11900</v>
       </c>
       <c r="H19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:8">
+    <row r="20" spans="1:10" ht="15.5">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -4141,14 +3962,14 @@
       <c r="D20" s="6">
         <v>220</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>8140</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:8">
+    <row r="21" spans="1:10" ht="15.5">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -4161,14 +3982,14 @@
       <c r="D21" s="6">
         <v>110</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>4070</v>
       </c>
       <c r="H21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:8">
+    <row r="22" spans="1:10" ht="15.5">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -4181,15 +4002,15 @@
       <c r="D22" s="6">
         <v>600</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>41400</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22">
         <f>SUM(H17:H21)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:10">
+    <row r="23" spans="1:10" ht="15.5">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -4202,14 +4023,14 @@
       <c r="D23" s="6">
         <v>600</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>41400</v>
       </c>
       <c r="J23">
         <v>127605</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:10" ht="15.5">
       <c r="A24" s="4">
         <v>6</v>
       </c>
@@ -4226,7 +4047,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:10" ht="15.5">
       <c r="A25" s="4">
         <v>7</v>
       </c>
@@ -4243,47 +4064,47 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="4" t="s">
+    <row r="26" spans="1:10" ht="15.5">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="9">
         <f>SUM(E19:E25)</f>
         <v>117250</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="4" t="s">
+    <row r="27" spans="1:10" ht="15.5">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11">
+      <c r="D27" s="81"/>
+      <c r="E27" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="1:10" ht="15.5">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="9">
         <f>SUM(E26)</f>
         <v>117250</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="2:2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" ht="32.25" spans="1:5">
+    <row r="32" spans="1:10" ht="15.5">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -4300,7 +4121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:5">
+    <row r="33" spans="1:5" ht="15.5">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -4313,11 +4134,11 @@
       <c r="D33" s="6">
         <v>110</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>3860</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:5">
+    <row r="34" spans="1:5" ht="15.5">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -4330,11 +4151,11 @@
       <c r="D34" s="6">
         <v>300</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>3960</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:5">
+    <row r="35" spans="1:5" ht="15.5">
       <c r="A35" s="4">
         <v>3</v>
       </c>
@@ -4347,11 +4168,11 @@
       <c r="D35" s="6">
         <v>400</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>50920</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:5">
+    <row r="36" spans="1:5" ht="15.5">
       <c r="A36" s="4">
         <v>4</v>
       </c>
@@ -4364,11 +4185,11 @@
       <c r="D36" s="6">
         <v>600</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>60660</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:5">
+    <row r="37" spans="1:5" ht="15.5">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -4381,11 +4202,11 @@
       <c r="D37" s="6">
         <v>200</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:5">
+    <row r="38" spans="1:5" ht="15.5">
       <c r="A38" s="4">
         <v>6</v>
       </c>
@@ -4398,11 +4219,11 @@
       <c r="D38" s="4">
         <v>300</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>900</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:5">
+    <row r="39" spans="1:5" ht="15.5">
       <c r="A39" s="4">
         <v>7</v>
       </c>
@@ -4415,11 +4236,11 @@
       <c r="D39" s="4">
         <v>450</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>1350</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:5">
+    <row r="40" spans="1:5" ht="15.5">
       <c r="A40" s="4">
         <v>8</v>
       </c>
@@ -4432,11 +4253,11 @@
       <c r="D40" s="4">
         <v>540</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>540</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:5">
+    <row r="41" spans="1:5" ht="15.5">
       <c r="A41" s="4">
         <v>9</v>
       </c>
@@ -4449,11 +4270,11 @@
       <c r="D41" s="4">
         <v>540</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>540</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:5">
+    <row r="42" spans="1:5" ht="15.5">
       <c r="A42" s="4">
         <v>10</v>
       </c>
@@ -4464,11 +4285,11 @@
         <v>89</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>100000</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:5">
+    <row r="43" spans="1:5" ht="15.5">
       <c r="A43" s="4">
         <v>11</v>
       </c>
@@ -4481,11 +4302,11 @@
       <c r="D43" s="4">
         <v>100</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>2100</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:5">
+    <row r="44" spans="1:5" ht="15.5">
       <c r="A44" s="4">
         <v>12</v>
       </c>
@@ -4498,11 +4319,11 @@
       <c r="D44" s="4">
         <v>100</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>2100</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:5">
+    <row r="45" spans="1:5" ht="15.5">
       <c r="A45" s="4">
         <v>13</v>
       </c>
@@ -4515,11 +4336,11 @@
       <c r="D45" s="4">
         <v>750</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>47250</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:5">
+    <row r="46" spans="1:5" ht="15.5">
       <c r="A46" s="4">
         <v>14</v>
       </c>
@@ -4532,11 +4353,11 @@
       <c r="D46" s="4">
         <v>750</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>27000</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:5">
+    <row r="47" spans="1:5" ht="15.5">
       <c r="A47" s="4">
         <v>15</v>
       </c>
@@ -4549,11 +4370,11 @@
       <c r="D47" s="4">
         <v>750</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>27000</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:5">
+    <row r="48" spans="1:5" ht="15.5">
       <c r="A48" s="4">
         <v>16</v>
       </c>
@@ -4566,47 +4387,46 @@
       <c r="D48" s="4">
         <v>750</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>27000</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="4" t="s">
+    <row r="49" spans="1:5" ht="15.5">
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="9">
         <f>SUM(E33:E48)</f>
         <v>356180</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="4" t="s">
+    <row r="50" spans="1:5" ht="15.5">
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="11">
+      <c r="D50" s="81"/>
+      <c r="E50" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="12" t="s">
+    <row r="51" spans="1:5" ht="15.5">
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="9">
         <f>SUM(E49)</f>
         <v>356180</v>
       </c>
     </row>
-    <row r="55" ht="15.75"/>
-    <row r="56" ht="32.25" spans="1:5">
+    <row r="56" spans="1:5" ht="15.5">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -4623,11 +4443,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:5">
+    <row r="57" spans="1:5" ht="15.5">
       <c r="A57" s="4">
         <v>1</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C57" s="6"/>
@@ -4636,8 +4456,8 @@
         <v>70013</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:5">
-      <c r="A58" s="16">
+    <row r="58" spans="1:5" ht="15.5">
+      <c r="A58" s="15">
         <v>2</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -4653,8 +4473,8 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:5">
-      <c r="A59" s="16">
+    <row r="59" spans="1:5" ht="15.5">
+      <c r="A59" s="15">
         <v>3</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -4670,8 +4490,8 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:5">
-      <c r="A60" s="16">
+    <row r="60" spans="1:5" ht="15.5">
+      <c r="A60" s="15">
         <v>4</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -4687,52 +4507,52 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="4" t="s">
+    <row r="61" spans="1:5" ht="15.5">
+      <c r="A61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="9">
         <f>SUM(E57:E59)</f>
         <v>87613</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="4" t="s">
+    <row r="62" spans="1:5" ht="15.5">
+      <c r="A62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="11">
+      <c r="D62" s="81"/>
+      <c r="E62" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="12" t="s">
+    <row r="63" spans="1:5" ht="15.5">
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="9">
         <f>SUM(E61)</f>
         <v>87613</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" ht="15.75" spans="1:1">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" ht="32.25" spans="1:5">
+    <row r="66" spans="1:5" ht="15.5">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -4749,7 +4569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:5">
+    <row r="67" spans="1:5" ht="15.5">
       <c r="A67" s="4">
         <v>1</v>
       </c>
@@ -4762,8 +4582,8 @@
         <v>37360</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:5">
-      <c r="A68" s="16">
+    <row r="68" spans="1:5" ht="15.5">
+      <c r="A68" s="15">
         <v>2</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -4772,11 +4592,11 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="9">
-        <v>26233.6</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" spans="1:5">
-      <c r="A69" s="16">
+        <v>26233.599999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.5">
+      <c r="A69" s="15">
         <v>3</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -4788,8 +4608,8 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:5">
-      <c r="A70" s="16">
+    <row r="70" spans="1:5" ht="15.5">
+      <c r="A70" s="15">
         <v>4</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -4805,8 +4625,8 @@
         <v>800</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:5">
-      <c r="A71" s="16">
+    <row r="71" spans="1:5" ht="15.5">
+      <c r="A71" s="15">
         <v>5</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -4822,8 +4642,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:5">
-      <c r="A72" s="16">
+    <row r="72" spans="1:5" ht="15.5">
+      <c r="A72" s="15">
         <v>6</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -4839,8 +4659,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:5">
-      <c r="A73" s="16">
+    <row r="73" spans="1:5" ht="15.5">
+      <c r="A73" s="15">
         <v>7</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -4856,8 +4676,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:5">
-      <c r="A74" s="16">
+    <row r="74" spans="1:5" ht="15.5">
+      <c r="A74" s="15">
         <v>8</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -4873,8 +4693,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:5">
-      <c r="A75" s="16">
+    <row r="75" spans="1:5" ht="15.5">
+      <c r="A75" s="15">
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -4890,8 +4710,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:5">
-      <c r="A76" s="16">
+    <row r="76" spans="1:5" ht="15.5">
+      <c r="A76" s="15">
         <v>10</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -4907,11 +4727,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:5">
-      <c r="A77" s="16">
+    <row r="77" spans="1:5" ht="15.5">
+      <c r="A77" s="15">
         <v>11</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4924,8 +4744,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:5">
-      <c r="A78" s="16">
+    <row r="78" spans="1:5" ht="15.5">
+      <c r="A78" s="15">
         <v>12</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -4941,11 +4761,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:5">
-      <c r="A79" s="16">
+    <row r="79" spans="1:5" ht="15.5">
+      <c r="A79" s="15">
         <v>13</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -4958,8 +4778,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:5">
-      <c r="A80" s="16">
+    <row r="80" spans="1:5" ht="15.5">
+      <c r="A80" s="15">
         <v>14</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -4975,8 +4795,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:5">
-      <c r="A81" s="16">
+    <row r="81" spans="1:5" ht="15.5">
+      <c r="A81" s="15">
         <v>15</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -4992,44 +4812,44 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:5">
-      <c r="A82" s="8"/>
-      <c r="B82" s="19" t="s">
+    <row r="82" spans="1:5" ht="15.5">
+      <c r="A82" s="80"/>
+      <c r="B82" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="81"/>
       <c r="E82" s="9">
         <f>SUM(E67:E81)</f>
-        <v>77379.6</v>
-      </c>
-    </row>
-    <row r="83" ht="16.5" spans="1:5">
-      <c r="A83" s="8"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="4" t="s">
+        <v>77379.600000000006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.5">
+      <c r="A83" s="80"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="11">
+      <c r="D83" s="81"/>
+      <c r="E83" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:5">
-      <c r="A84" s="8"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="12" t="s">
+    <row r="84" spans="1:5" ht="15.5">
+      <c r="A84" s="80"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="9">
         <f>SUM(E82)</f>
-        <v>77379.6</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:2">
+        <v>77379.600000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -5037,7 +4857,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" ht="32.25" spans="1:5">
+    <row r="87" spans="1:5" ht="15.5">
       <c r="A87" s="1" t="s">
         <v>74</v>
       </c>
@@ -5054,7 +4874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:5">
+    <row r="88" spans="1:5" ht="15.5">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -5067,8 +4887,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:5">
-      <c r="A89" s="16">
+    <row r="89" spans="1:5" ht="15.5">
+      <c r="A89" s="15">
         <v>2</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -5084,8 +4904,8 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:5">
-      <c r="A90" s="16">
+    <row r="90" spans="1:5" ht="15.5">
+      <c r="A90" s="15">
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -5101,8 +4921,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:5">
-      <c r="A91" s="16">
+    <row r="91" spans="1:5" ht="15.5">
+      <c r="A91" s="15">
         <v>4</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -5118,8 +4938,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:5">
-      <c r="A92" s="16">
+    <row r="92" spans="1:5" ht="15.5">
+      <c r="A92" s="15">
         <v>5</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -5135,8 +4955,8 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:5">
-      <c r="A93" s="16">
+    <row r="93" spans="1:5" ht="15.5">
+      <c r="A93" s="15">
         <v>6</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -5152,8 +4972,8 @@
         <v>10332</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:5">
-      <c r="A94" s="16">
+    <row r="94" spans="1:5" ht="15.5">
+      <c r="A94" s="15">
         <v>7</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -5169,8 +4989,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="95" ht="30.75" spans="1:5">
-      <c r="A95" s="16">
+    <row r="95" spans="1:5" ht="28">
+      <c r="A95" s="15">
         <v>8</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -5186,8 +5006,8 @@
         <v>24732</v>
       </c>
     </row>
-    <row r="96" ht="30.75" spans="1:5">
-      <c r="A96" s="16">
+    <row r="96" spans="1:5" ht="28">
+      <c r="A96" s="15">
         <v>9</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -5203,8 +5023,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" ht="30.75" spans="1:5">
-      <c r="A97" s="16">
+    <row r="97" spans="1:5" ht="28">
+      <c r="A97" s="15">
         <v>10</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -5220,8 +5040,8 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="98" ht="30.75" spans="1:5">
-      <c r="A98" s="16">
+    <row r="98" spans="1:5" ht="28">
+      <c r="A98" s="15">
         <v>11</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -5237,8 +5057,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:5">
-      <c r="A99" s="16">
+    <row r="99" spans="1:5" ht="15.5">
+      <c r="A99" s="15">
         <v>12</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -5254,8 +5074,8 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:5">
-      <c r="A100" s="16">
+    <row r="100" spans="1:5" ht="15.5">
+      <c r="A100" s="15">
         <v>13</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -5271,8 +5091,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:5">
-      <c r="A101" s="16">
+    <row r="101" spans="1:5" ht="15.5">
+      <c r="A101" s="15">
         <v>14</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -5288,8 +5108,8 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:5">
-      <c r="A102" s="16">
+    <row r="102" spans="1:5" ht="15.5">
+      <c r="A102" s="15">
         <v>15</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -5305,8 +5125,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:5">
-      <c r="A103" s="16">
+    <row r="103" spans="1:5" ht="15.5">
+      <c r="A103" s="15">
         <v>16</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -5322,8 +5142,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:5">
-      <c r="A104" s="16">
+    <row r="104" spans="1:5" ht="15.5">
+      <c r="A104" s="15">
         <v>17</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -5339,47 +5159,47 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:5">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="4" t="s">
+    <row r="105" spans="1:5" ht="15.5">
+      <c r="A105" s="80"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="81"/>
       <c r="E105" s="9">
         <f>SUM(E88:E104)</f>
         <v>206593</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:5">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="4" t="s">
+    <row r="106" spans="1:5" ht="15.5">
+      <c r="A106" s="80"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="11">
+      <c r="D106" s="81"/>
+      <c r="E106" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:5">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="12" t="s">
+    <row r="107" spans="1:5" ht="15.5">
+      <c r="A107" s="80"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="12"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="9">
         <f>SUM(E105)</f>
         <v>206593</v>
       </c>
     </row>
-    <row r="109" ht="15.75" spans="1:1">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" ht="32.25" spans="1:5">
+    <row r="110" spans="1:5" ht="15.5">
       <c r="A110" s="1" t="s">
         <v>74</v>
       </c>
@@ -5396,7 +5216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:5">
+    <row r="111" spans="1:5" ht="15.5">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -5409,7 +5229,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:5">
+    <row r="112" spans="1:5" ht="15.5">
       <c r="A112" s="4">
         <v>2</v>
       </c>
@@ -5426,7 +5246,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="113" ht="30.75" spans="1:5">
+    <row r="113" spans="1:5" ht="28">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -5443,7 +5263,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:5">
+    <row r="114" spans="1:5" ht="15.5">
       <c r="A114" s="4">
         <v>4</v>
       </c>
@@ -5460,7 +5280,7 @@
         <v>6360</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:5">
+    <row r="115" spans="1:5" ht="15.5">
       <c r="A115" s="4">
         <v>5</v>
       </c>
@@ -5477,7 +5297,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:5">
+    <row r="116" spans="1:5" ht="15.5">
       <c r="A116" s="4">
         <v>6</v>
       </c>
@@ -5494,47 +5314,47 @@
         <v>18850</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:5">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="4" t="s">
+    <row r="117" spans="1:5" ht="15.5">
+      <c r="A117" s="80"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="81"/>
       <c r="E117" s="9">
         <f>SUM(E111:E116)</f>
         <v>146131</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:5">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="4" t="s">
+    <row r="118" spans="1:5" ht="15.5">
+      <c r="A118" s="80"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="11">
+      <c r="D118" s="81"/>
+      <c r="E118" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:5">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="12" t="s">
+    <row r="119" spans="1:5" ht="15.5">
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D119" s="12"/>
+      <c r="D119" s="83"/>
       <c r="E119" s="9">
         <f>SUM(E117)</f>
         <v>146131</v>
       </c>
     </row>
-    <row r="122" ht="15.75" spans="2:2">
+    <row r="122" spans="1:5">
       <c r="B122" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" ht="32.25" spans="1:5">
+    <row r="123" spans="1:5" ht="15.5">
       <c r="A123" s="1" t="s">
         <v>74</v>
       </c>
@@ -5551,7 +5371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:5">
+    <row r="124" spans="1:5" ht="15.5">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -5568,8 +5388,8 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:5">
-      <c r="A125" s="16">
+    <row r="125" spans="1:5" ht="15.5">
+      <c r="A125" s="15">
         <v>2</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -5585,8 +5405,8 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:5">
-      <c r="A126" s="16">
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" s="15">
         <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
@@ -5602,8 +5422,8 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:5">
-      <c r="A127" s="16">
+    <row r="127" spans="1:5" ht="15.5">
+      <c r="A127" s="15">
         <v>4</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -5619,8 +5439,8 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:5">
-      <c r="A128" s="16">
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="15">
         <v>5</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -5636,8 +5456,8 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:5">
-      <c r="A129" s="16">
+    <row r="129" spans="1:5" ht="15.5">
+      <c r="A129" s="15">
         <v>6</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -5653,52 +5473,52 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:5">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="4" t="s">
+    <row r="130" spans="1:5" ht="15.5">
+      <c r="A130" s="80"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="4"/>
+      <c r="D130" s="81"/>
       <c r="E130" s="9">
         <f>SUM(E124:E129)</f>
         <v>63750</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:5">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="4" t="s">
+    <row r="131" spans="1:5" ht="15.5">
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="11">
+      <c r="D131" s="81"/>
+      <c r="E131" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:5">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="12" t="s">
+    <row r="132" spans="1:5" ht="15.5">
+      <c r="A132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D132" s="12"/>
+      <c r="D132" s="83"/>
       <c r="E132" s="9">
         <f>SUM(E130)</f>
         <v>63750</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="135" ht="15.75" spans="1:1">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="136" ht="32.25" spans="1:5">
+    <row r="136" spans="1:5" ht="15.5">
       <c r="A136" s="1" t="s">
         <v>74</v>
       </c>
@@ -5715,11 +5535,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:5">
+    <row r="137" spans="1:5" ht="15.5">
       <c r="A137" s="4">
         <v>1</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C137" s="6">
@@ -5732,8 +5552,8 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:5">
-      <c r="A138" s="16">
+    <row r="138" spans="1:5" ht="15.5">
+      <c r="A138" s="15">
         <v>2</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -5749,8 +5569,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:5">
-      <c r="A139" s="16">
+    <row r="139" spans="1:5" ht="15.5">
+      <c r="A139" s="15">
         <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
@@ -5766,8 +5586,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:5">
-      <c r="A140" s="16">
+    <row r="140" spans="1:5" ht="15.5">
+      <c r="A140" s="15">
         <v>4</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -5783,47 +5603,47 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:5">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="4" t="s">
+    <row r="141" spans="1:5" ht="15.5">
+      <c r="A141" s="80"/>
+      <c r="B141" s="80"/>
+      <c r="C141" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="4"/>
+      <c r="D141" s="81"/>
       <c r="E141" s="9">
         <f>SUM(E137:E140)</f>
         <v>28720</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:5">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="4" t="s">
+    <row r="142" spans="1:5" ht="15.5">
+      <c r="A142" s="80"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="11">
+      <c r="D142" s="81"/>
+      <c r="E142" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:5">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="12" t="s">
+    <row r="143" spans="1:5" ht="15.5">
+      <c r="A143" s="80"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D143" s="12"/>
+      <c r="D143" s="83"/>
       <c r="E143" s="9">
         <f>SUM(E141)</f>
         <v>28720</v>
       </c>
     </row>
-    <row r="145" ht="15.75" spans="1:1">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="146" ht="32.25" spans="1:5">
+    <row r="146" spans="1:5" ht="15.5">
       <c r="A146" s="1" t="s">
         <v>74</v>
       </c>
@@ -5840,22 +5660,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="147" ht="19.5" spans="1:5">
-      <c r="A147" s="20">
+    <row r="147" spans="1:5" ht="17.5">
+      <c r="A147" s="18">
         <v>1</v>
       </c>
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" ht="16.5" spans="1:5">
-      <c r="A148" s="22">
-        <v>1.1</v>
-      </c>
-      <c r="B148" s="23" t="s">
+    <row r="148" spans="1:5" ht="15.5">
+      <c r="A148" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B148" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C148" s="6">
@@ -5868,11 +5688,11 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:5">
-      <c r="A149" s="22">
+    <row r="149" spans="1:5" ht="15.5">
+      <c r="A149" s="20">
         <v>1.2</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="21" t="s">
         <v>209</v>
       </c>
       <c r="C149" s="4">
@@ -5885,11 +5705,11 @@
         <v>58800</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:5">
-      <c r="A150" s="22">
+    <row r="150" spans="1:5" ht="15.5">
+      <c r="A150" s="20">
         <v>1.3</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="21" t="s">
         <v>210</v>
       </c>
       <c r="C150" s="4">
@@ -5902,11 +5722,11 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:5">
-      <c r="A151" s="22">
+    <row r="151" spans="1:5" ht="15.5">
+      <c r="A151" s="20">
         <v>1.4</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C151" s="4">
@@ -5919,11 +5739,11 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:5">
-      <c r="A152" s="22">
+    <row r="152" spans="1:5" ht="15.5">
+      <c r="A152" s="20">
         <v>1.5</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C152" s="4">
@@ -5936,22 +5756,22 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="153" ht="19.5" spans="1:5">
+    <row r="153" spans="1:5" ht="17.5">
       <c r="A153" s="4">
         <v>2</v>
       </c>
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="19" t="s">
         <v>203</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="9"/>
     </row>
-    <row r="154" ht="16.5" spans="1:5">
-      <c r="A154" s="24">
+    <row r="154" spans="1:5" ht="15.5">
+      <c r="A154" s="22">
         <v>2.1</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="21" t="s">
         <v>204</v>
       </c>
       <c r="C154" s="6">
@@ -5964,11 +5784,11 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:5">
-      <c r="A155" s="24">
-        <v>2.2</v>
-      </c>
-      <c r="B155" s="25" t="s">
+    <row r="155" spans="1:5" ht="15.5">
+      <c r="A155" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C155" s="4">
@@ -5981,11 +5801,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:5">
-      <c r="A156" s="24">
-        <v>2.3</v>
-      </c>
-      <c r="B156" s="25" t="s">
+    <row r="156" spans="1:5" ht="15.5">
+      <c r="A156" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B156" s="23" t="s">
         <v>206</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -5998,11 +5818,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:5">
-      <c r="A157" s="24">
+    <row r="157" spans="1:5" ht="15.5">
+      <c r="A157" s="22">
         <v>2.4</v>
       </c>
-      <c r="B157" s="25" t="s">
+      <c r="B157" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -6015,47 +5835,47 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:5">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="4" t="s">
+    <row r="158" spans="1:5" ht="15.5">
+      <c r="A158" s="80"/>
+      <c r="B158" s="80"/>
+      <c r="C158" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="4"/>
+      <c r="D158" s="81"/>
       <c r="E158" s="9">
         <f>SUM(E147:E157)</f>
         <v>152420</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:5">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="4" t="s">
+    <row r="159" spans="1:5" ht="15.5">
+      <c r="A159" s="80"/>
+      <c r="B159" s="80"/>
+      <c r="C159" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="11">
+      <c r="D159" s="81"/>
+      <c r="E159" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:5">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="12" t="s">
+    <row r="160" spans="1:5" ht="15.5">
+      <c r="A160" s="80"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D160" s="12"/>
+      <c r="D160" s="83"/>
       <c r="E160" s="9">
         <f>SUM(E158)</f>
         <v>152420</v>
       </c>
     </row>
-    <row r="162" ht="15.75" spans="1:1">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:5">
+    <row r="163" spans="1:5" ht="15.5">
       <c r="A163" s="1" t="s">
         <v>74</v>
       </c>
@@ -6072,31 +5892,31 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" ht="19.5" spans="1:5">
+    <row r="164" spans="1:5" ht="17.5">
       <c r="A164" s="4">
         <v>1</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="24" t="s">
         <v>214</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="9"/>
     </row>
-    <row r="165" ht="16.5" spans="1:5">
-      <c r="A165" s="16"/>
-      <c r="B165" s="27" t="s">
+    <row r="165" spans="1:5" ht="15.5">
+      <c r="A165" s="15"/>
+      <c r="B165" s="25" t="s">
         <v>215</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="9"/>
     </row>
-    <row r="166" ht="16.5" spans="1:5">
-      <c r="A166" s="11" t="s">
+    <row r="166" spans="1:5" ht="15.5">
+      <c r="A166" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="21" t="s">
         <v>217</v>
       </c>
       <c r="C166" s="4">
@@ -6105,15 +5925,15 @@
       <c r="D166" s="4">
         <v>1000</v>
       </c>
-      <c r="E166" s="28">
+      <c r="E166" s="26">
         <v>4000</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:5">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:5" ht="15.5">
+      <c r="A167" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="21" t="s">
         <v>219</v>
       </c>
       <c r="C167" s="4">
@@ -6122,15 +5942,15 @@
       <c r="D167" s="4">
         <v>1000</v>
       </c>
-      <c r="E167" s="28">
+      <c r="E167" s="26">
         <v>4000</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:5">
-      <c r="A168" s="11" t="s">
+    <row r="168" spans="1:5" ht="15.5">
+      <c r="A168" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="21" t="s">
         <v>221</v>
       </c>
       <c r="C168" s="4">
@@ -6139,15 +5959,15 @@
       <c r="D168" s="4">
         <v>600</v>
       </c>
-      <c r="E168" s="28">
+      <c r="E168" s="26">
         <v>2400</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:5">
-      <c r="A169" s="29">
+    <row r="169" spans="1:5" ht="15.5">
+      <c r="A169" s="27">
         <v>2</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -6156,15 +5976,15 @@
       <c r="D169" s="4">
         <v>750</v>
       </c>
-      <c r="E169" s="28">
+      <c r="E169" s="26">
         <v>30000</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:5">
-      <c r="A170" s="29">
+    <row r="170" spans="1:5" ht="15.5">
+      <c r="A170" s="27">
         <v>3</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -6173,15 +5993,15 @@
       <c r="D170" s="4">
         <v>300</v>
       </c>
-      <c r="E170" s="28">
+      <c r="E170" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:5">
-      <c r="A171" s="29">
+    <row r="171" spans="1:5" ht="15.5">
+      <c r="A171" s="27">
         <v>4</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="11" t="s">
         <v>224</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6190,15 +6010,15 @@
       <c r="D171" s="4">
         <v>750</v>
       </c>
-      <c r="E171" s="28">
+      <c r="E171" s="26">
         <v>2250</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:5">
-      <c r="A172" s="29">
+    <row r="172" spans="1:5" ht="15.5">
+      <c r="A172" s="27">
         <v>5</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -6207,15 +6027,15 @@
       <c r="D172" s="4">
         <v>750</v>
       </c>
-      <c r="E172" s="28">
+      <c r="E172" s="26">
         <v>2250</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:5">
-      <c r="A173" s="29">
+    <row r="173" spans="1:5" ht="15.5">
+      <c r="A173" s="27">
         <v>6</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -6224,15 +6044,15 @@
       <c r="D173" s="4">
         <v>750</v>
       </c>
-      <c r="E173" s="28">
+      <c r="E173" s="26">
         <v>1500</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:5">
-      <c r="A174" s="29">
+    <row r="174" spans="1:5" ht="15.5">
+      <c r="A174" s="27">
         <v>7</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -6241,15 +6061,15 @@
       <c r="D174" s="4">
         <v>750</v>
       </c>
-      <c r="E174" s="28">
+      <c r="E174" s="26">
         <v>1500</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:5">
-      <c r="A175" s="29">
+    <row r="175" spans="1:5" ht="15.5">
+      <c r="A175" s="27">
         <v>8</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -6258,15 +6078,15 @@
       <c r="D175" s="4">
         <v>100</v>
       </c>
-      <c r="E175" s="28">
+      <c r="E175" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:5">
-      <c r="A176" s="29">
+    <row r="176" spans="1:5" ht="15.5">
+      <c r="A176" s="27">
         <v>9</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="11" t="s">
         <v>229</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -6275,15 +6095,15 @@
       <c r="D176" s="4">
         <v>100</v>
       </c>
-      <c r="E176" s="28">
+      <c r="E176" s="26">
         <v>400</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:5">
-      <c r="A177" s="29">
+    <row r="177" spans="1:8" ht="15.5">
+      <c r="A177" s="27">
         <v>10</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -6292,15 +6112,15 @@
       <c r="D177" s="4">
         <v>50</v>
       </c>
-      <c r="E177" s="28">
+      <c r="E177" s="26">
         <v>400</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:5">
-      <c r="A178" s="29">
+    <row r="178" spans="1:8" ht="15.5">
+      <c r="A178" s="27">
         <v>11</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -6309,15 +6129,15 @@
       <c r="D178" s="4">
         <v>100</v>
       </c>
-      <c r="E178" s="28">
+      <c r="E178" s="26">
         <v>1500</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:5">
-      <c r="A179" s="29">
+    <row r="179" spans="1:8" ht="15.5">
+      <c r="A179" s="27">
         <v>12</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -6326,15 +6146,15 @@
       <c r="D179" s="4">
         <v>600</v>
       </c>
-      <c r="E179" s="28">
+      <c r="E179" s="26">
         <v>21840</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:5">
-      <c r="A180" s="29">
+    <row r="180" spans="1:8" ht="15.5">
+      <c r="A180" s="27">
         <v>13</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -6343,15 +6163,15 @@
       <c r="D180" s="4">
         <v>300</v>
       </c>
-      <c r="E180" s="28">
+      <c r="E180" s="26">
         <v>4200</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:5">
-      <c r="A181" s="29">
+    <row r="181" spans="1:8" ht="15.5">
+      <c r="A181" s="27">
         <v>14</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -6360,15 +6180,15 @@
       <c r="D181" s="4">
         <v>720</v>
       </c>
-      <c r="E181" s="28">
+      <c r="E181" s="26">
         <v>5400</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:5">
-      <c r="A182" s="29">
+    <row r="182" spans="1:8" ht="15.5">
+      <c r="A182" s="27">
         <v>15</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6377,55 +6197,55 @@
       <c r="D182" s="4">
         <v>15</v>
       </c>
-      <c r="E182" s="28">
+      <c r="E182" s="26">
         <v>112.5</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:5">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="4" t="s">
+    <row r="183" spans="1:8" ht="15.5">
+      <c r="A183" s="80"/>
+      <c r="B183" s="80"/>
+      <c r="C183" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="4"/>
+      <c r="D183" s="81"/>
       <c r="E183" s="9">
         <f>SUM(E164:E182)</f>
         <v>82352.5</v>
       </c>
     </row>
-    <row r="184" ht="15.75" spans="1:5">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="4" t="s">
+    <row r="184" spans="1:8" ht="15.5">
+      <c r="A184" s="80"/>
+      <c r="B184" s="80"/>
+      <c r="C184" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="11">
+      <c r="D184" s="81"/>
+      <c r="E184" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:5">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="12" t="s">
+    <row r="185" spans="1:8" ht="15.5">
+      <c r="A185" s="80"/>
+      <c r="B185" s="80"/>
+      <c r="C185" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="D185" s="83"/>
       <c r="E185" s="9">
         <f>SUM(E183)</f>
         <v>82352.5</v>
       </c>
     </row>
-    <row r="188" ht="15.75" spans="1:1">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:5">
+    <row r="189" spans="1:8" ht="15.5">
       <c r="A189" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -6438,24 +6258,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="190" ht="30.75" spans="1:5">
-      <c r="A190" s="31">
+    <row r="190" spans="1:8" ht="28">
+      <c r="A190" s="29">
         <v>1</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C190" s="33" t="s">
+      <c r="C190" s="31" t="s">
         <v>241</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="9"/>
     </row>
-    <row r="191" ht="30.75" spans="1:8">
-      <c r="A191" s="16">
+    <row r="191" spans="1:8" ht="28">
+      <c r="A191" s="15">
         <v>2</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="30" t="s">
         <v>242</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -6463,13 +6283,13 @@
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="9"/>
-      <c r="H191" s="34"/>
-    </row>
-    <row r="192" ht="16.5" spans="1:5">
-      <c r="A192" s="11" t="s">
+      <c r="H191" s="32"/>
+    </row>
+    <row r="192" spans="1:8" ht="15.5">
+      <c r="A192" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="33" t="s">
         <v>217</v>
       </c>
       <c r="C192" s="4">
@@ -6482,11 +6302,11 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:5">
-      <c r="A193" s="11" t="s">
+    <row r="193" spans="1:10" ht="15.5">
+      <c r="A193" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="21" t="s">
         <v>219</v>
       </c>
       <c r="C193" s="4">
@@ -6499,11 +6319,11 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:5">
-      <c r="A194" s="11" t="s">
+    <row r="194" spans="1:10" ht="15.5">
+      <c r="A194" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="21" t="s">
         <v>221</v>
       </c>
       <c r="C194" s="4">
@@ -6516,43 +6336,471 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:5">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="4" t="s">
+    <row r="195" spans="1:10" ht="15.5">
+      <c r="A195" s="80"/>
+      <c r="B195" s="80"/>
+      <c r="C195" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="4"/>
+      <c r="D195" s="81"/>
       <c r="E195" s="9">
         <f>SUM(E190:E194)</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:5">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="4" t="s">
+    <row r="196" spans="1:10" ht="15.5">
+      <c r="A196" s="80"/>
+      <c r="B196" s="80"/>
+      <c r="C196" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D196" s="4"/>
-      <c r="E196" s="11">
+      <c r="D196" s="81"/>
+      <c r="E196" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:5">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="12" t="s">
+    <row r="197" spans="1:10" ht="15.5">
+      <c r="A197" s="80"/>
+      <c r="B197" s="80"/>
+      <c r="C197" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D197" s="12"/>
+      <c r="D197" s="83"/>
       <c r="E197" s="9">
         <f>SUM(E195)</f>
         <v>48000</v>
       </c>
     </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B199" s="71"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="71"/>
+      <c r="E199" s="71"/>
+      <c r="F199" s="71"/>
+      <c r="G199" s="71"/>
+      <c r="H199" s="71"/>
+      <c r="I199" s="71"/>
+      <c r="J199" s="71"/>
+    </row>
+    <row r="200" spans="1:10" ht="15" thickBot="1">
+      <c r="A200" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="69">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="16" thickBot="1">
+      <c r="A201" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B201" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="16" thickBot="1">
+      <c r="A202" s="29">
+        <v>1</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C202" s="31"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="9">
+        <v>31937</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="16" thickBot="1">
+      <c r="A203" s="15">
+        <v>2</v>
+      </c>
+      <c r="B203" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="9">
+        <v>14193</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16" thickBot="1">
+      <c r="A204" s="29">
+        <v>3</v>
+      </c>
+      <c r="B204" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D204" s="4">
+        <v>200</v>
+      </c>
+      <c r="E204" s="9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="16" thickBot="1">
+      <c r="A205" s="15">
+        <v>4</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D205" s="4">
+        <v>200</v>
+      </c>
+      <c r="E205" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="16" thickBot="1">
+      <c r="A206" s="29">
+        <v>5</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D206" s="4">
+        <v>50</v>
+      </c>
+      <c r="E206" s="9">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="16" thickBot="1">
+      <c r="A207" s="15">
+        <v>6</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D207" s="4">
+        <v>50</v>
+      </c>
+      <c r="E207" s="9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16" thickBot="1">
+      <c r="A208" s="15">
+        <v>7</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D208" s="4">
+        <v>200</v>
+      </c>
+      <c r="E208" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="16" thickBot="1">
+      <c r="A209" s="29">
+        <v>8</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D209" s="4">
+        <v>50</v>
+      </c>
+      <c r="E209" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="16" thickBot="1">
+      <c r="A210" s="15">
+        <v>9</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C210" s="4">
+        <v>4</v>
+      </c>
+      <c r="D210" s="4">
+        <v>50</v>
+      </c>
+      <c r="E210" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="16" thickBot="1">
+      <c r="A211" s="80"/>
+      <c r="B211" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="C211" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="81"/>
+      <c r="E211" s="9">
+        <f>SUM(E202:E210)</f>
+        <v>51530</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="16" thickBot="1">
+      <c r="A212" s="80"/>
+      <c r="B212" s="80"/>
+      <c r="C212" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D212" s="81"/>
+      <c r="E212" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="16" thickBot="1">
+      <c r="A213" s="80"/>
+      <c r="B213" s="80"/>
+      <c r="C213" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D213" s="83"/>
+      <c r="E213" s="9">
+        <f>SUM(E211)</f>
+        <v>51530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="16" thickBot="1">
+      <c r="A215" s="69">
+        <v>45716</v>
+      </c>
+      <c r="B215" s="70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="16" thickBot="1">
+      <c r="A216" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="16" thickBot="1">
+      <c r="A217" s="29">
+        <v>1</v>
+      </c>
+      <c r="B217" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C217" s="31">
+        <v>93</v>
+      </c>
+      <c r="D217" s="6">
+        <v>700</v>
+      </c>
+      <c r="E217" s="9">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="16" thickBot="1">
+      <c r="A218" s="15">
+        <v>2</v>
+      </c>
+      <c r="B218" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C218" s="4">
+        <v>29</v>
+      </c>
+      <c r="D218" s="4">
+        <v>700</v>
+      </c>
+      <c r="E218" s="9">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="16" thickBot="1">
+      <c r="A219" s="29">
+        <v>3</v>
+      </c>
+      <c r="B219" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C219" s="4">
+        <v>8</v>
+      </c>
+      <c r="D219" s="4">
+        <v>700</v>
+      </c>
+      <c r="E219" s="9">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="16" thickBot="1">
+      <c r="A220" s="80"/>
+      <c r="B220" s="80"/>
+      <c r="C220" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="81"/>
+      <c r="E220" s="9">
+        <f>SUM(E217:E219)</f>
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="16" thickBot="1">
+      <c r="A221" s="80"/>
+      <c r="B221" s="80"/>
+      <c r="C221" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="D221" s="81"/>
+      <c r="E221">
+        <f>E220*20%</f>
+        <v>18480</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="16" thickBot="1">
+      <c r="A222" s="80"/>
+      <c r="B222" s="80"/>
+      <c r="C222" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="D222" s="81"/>
+      <c r="E222" s="9">
+        <f>E220*80%</f>
+        <v>73920</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1">
+      <c r="A225" s="69">
+        <v>45716</v>
+      </c>
+      <c r="B225" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="16" thickBot="1">
+      <c r="A226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="16" thickBot="1">
+      <c r="A227" s="15">
+        <v>1</v>
+      </c>
+      <c r="B227" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D227" s="4">
+        <v>50</v>
+      </c>
+      <c r="E227" s="9">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="31.5" thickBot="1">
+      <c r="A228" s="15">
+        <v>2</v>
+      </c>
+      <c r="B228" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D228" s="4">
+        <v>100</v>
+      </c>
+      <c r="E228" s="9">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="16" thickBot="1">
+      <c r="A229" s="80"/>
+      <c r="B229" s="80"/>
+      <c r="C229" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="81"/>
+      <c r="E229" s="9">
+        <f>SUM(E227:E228)</f>
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="16" thickBot="1">
+      <c r="A230" s="80"/>
+      <c r="B230" s="80"/>
+      <c r="C230" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="D230" s="81"/>
+      <c r="E230" s="10">
+        <f>E229*20%</f>
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="16" thickBot="1">
+      <c r="A231" s="80"/>
+      <c r="B231" s="80"/>
+      <c r="C231" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="D231" s="81"/>
+      <c r="E231" s="9">
+        <f>E229*80%</f>
+        <v>29280</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="75">
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -6613,9 +6861,23 @@
     <mergeCell ref="B158:B160"/>
     <mergeCell ref="B183:B185"/>
     <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A220:A222"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>